--- a/agent booking files GCI/Excel/FINANCIAL STATEMENTS - STRUCTURE  - MAAM VAN.xlsx
+++ b/agent booking files GCI/Excel/FINANCIAL STATEMENTS - STRUCTURE  - MAAM VAN.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\63917\Documents\VAC 2022\OTHERS\JULMAR 2022\ACCOUNTING 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\julmar\agent booking files GCI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15530" windowHeight="6930" firstSheet="5" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15525" windowHeight="6930" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="LEDGER" sheetId="1" r:id="rId1"/>
@@ -1745,6 +1745,22 @@
     <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1763,23 +1779,7 @@
     <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2368,28 +2368,28 @@
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.81640625" style="1" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" style="1" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="78" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="14.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="8.7265625" style="1"/>
-    <col min="10" max="10" width="23.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7265625" style="1"/>
-    <col min="13" max="13" width="32.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.7265625" style="1"/>
-    <col min="15" max="15" width="10.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.7265625" style="1"/>
-    <col min="17" max="17" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="43.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.7265625" style="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="8.7109375" style="1"/>
+    <col min="10" max="10" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="1"/>
+    <col min="13" max="13" width="32.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" style="1"/>
+    <col min="15" max="15" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.7109375" style="1"/>
+    <col min="17" max="17" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="43.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2397,7 +2397,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="J2" s="4" t="s">
         <v>37</v>
@@ -2409,7 +2409,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -2435,7 +2435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="2" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
@@ -2453,7 +2453,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -2491,7 +2491,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="J6" s="9">
         <v>44060</v>
       </c>
@@ -2522,7 +2522,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -2559,7 +2559,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="J8" s="9">
         <v>44120</v>
       </c>
@@ -2585,7 +2585,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
@@ -2610,7 +2610,7 @@
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="E10" s="1" t="s">
         <v>33</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="J11" s="4" t="s">
         <v>54</v>
       </c>
@@ -2635,7 +2635,7 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -2658,7 +2658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="J13" s="29" t="s">
         <v>81</v>
       </c>
@@ -2679,7 +2679,7 @@
       </c>
       <c r="R13" s="2"/>
     </row>
-    <row r="14" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -2711,7 +2711,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>17</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>18</v>
       </c>
@@ -2805,7 +2805,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>20</v>
       </c>
@@ -2824,7 +2824,7 @@
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
     </row>
-    <row r="19" spans="1:18" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
@@ -2834,7 +2834,7 @@
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
     </row>
-    <row r="20" spans="1:18" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="J20" s="29" t="s">
         <v>82</v>
       </c>
@@ -2855,7 +2855,7 @@
       </c>
       <c r="R20" s="2"/>
     </row>
-    <row r="21" spans="1:18" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="J21" s="9">
         <v>44029</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="J22" s="9">
         <v>44060</v>
       </c>
@@ -2909,7 +2909,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="J23" s="9">
         <v>44091</v>
       </c>
@@ -2937,7 +2937,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="J24" s="9">
         <v>44120</v>
       </c>
@@ -2963,7 +2963,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>21</v>
       </c>
@@ -2982,7 +2982,7 @@
       <c r="P25" s="6"/>
       <c r="Q25" s="6"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>24</v>
       </c>
@@ -2993,7 +2993,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="N27" s="2" t="s">
         <v>31</v>
       </c>
@@ -3001,7 +3001,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>22</v>
       </c>
@@ -3011,7 +3011,7 @@
       <c r="M28" s="7"/>
       <c r="Q28" s="11"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="L29" s="1" t="s">
         <v>81</v>
       </c>
@@ -3028,7 +3028,7 @@
         <v>217000</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="L30" s="1" t="s">
         <v>82</v>
       </c>
@@ -3045,17 +3045,17 @@
         <v>112000</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J36" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>25</v>
       </c>
@@ -3063,12 +3063,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J38" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>26</v>
       </c>
@@ -3076,7 +3076,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J42" s="1" t="s">
         <v>87</v>
       </c>
@@ -3095,13 +3095,13 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -3109,7 +3109,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -3117,7 +3117,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -3138,18 +3138,18 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.08984375" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.140625" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C2" s="14" t="s">
         <v>31</v>
       </c>
@@ -3157,7 +3157,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -3165,7 +3165,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>64</v>
       </c>
@@ -3173,7 +3173,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -3181,7 +3181,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -3189,7 +3189,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>67</v>
       </c>
@@ -3197,7 +3197,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>68</v>
       </c>
@@ -3207,7 +3207,7 @@
         <v>6100</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="17">
         <f>SUM(C3:C13)</f>
         <v>10000</v>
@@ -3217,7 +3217,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3231,37 +3231,37 @@
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.08984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7265625" style="24"/>
-    <col min="8" max="8" width="12.6328125" style="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="24"/>
+    <col min="8" max="8" width="12.5703125" style="24" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.453125" style="31" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.54296875" style="24" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.90625" style="24" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="31" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.85546875" style="24" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14" style="24" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.453125" style="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.453125" style="12" customWidth="1"/>
-    <col min="19" max="19" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.7265625" style="1"/>
+    <col min="17" max="17" width="16.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.42578125" style="12" customWidth="1"/>
+    <col min="19" max="19" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B1" s="30" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>31</v>
       </c>
@@ -3269,17 +3269,17 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.2">
       <c r="I7" s="43">
         <v>0.01</v>
       </c>
@@ -3296,7 +3296,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>91</v>
       </c>
@@ -3358,7 +3358,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>116</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>2011.4039999999986</v>
       </c>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>116</v>
       </c>
@@ -3459,7 +3459,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>116</v>
       </c>
@@ -3502,7 +3502,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>116</v>
       </c>
@@ -3545,7 +3545,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>116</v>
       </c>
@@ -3588,12 +3588,12 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>89</v>
       </c>
@@ -3602,7 +3602,7 @@
         <v>148020</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B21" s="34" t="s">
         <v>90</v>
       </c>
@@ -3611,7 +3611,7 @@
         <v>148020</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>112</v>
       </c>
@@ -3620,7 +3620,7 @@
         <v>135600</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B24" s="34" t="s">
         <v>113</v>
       </c>
@@ -3629,12 +3629,12 @@
         <v>135600</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="30" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>115</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B30" s="4" t="s">
         <v>118</v>
       </c>
@@ -3663,7 +3663,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="str">
         <f>B14</f>
         <v>INV 100021</v>
@@ -3677,7 +3677,7 @@
         <v>198020</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="str">
         <f>'COLLECTION RECEIPT JOURNAL'!B5</f>
         <v>OR - 80012</v>
@@ -3692,21 +3692,21 @@
         <v>125020</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C33" s="24"/>
       <c r="D33" s="24"/>
       <c r="F33" s="33"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F34" s="35"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="30" t="s">
         <v>90</v>
       </c>
       <c r="F35" s="35"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>120</v>
       </c>
@@ -3724,14 +3724,14 @@
         <v>117</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="str">
         <f>A28</f>
         <v>ACCOUNTS RECEIVABLE - CUSTOMER A</v>
@@ -3749,7 +3749,7 @@
         <v>148020</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>114</v>
       </c>
@@ -3764,10 +3764,10 @@
         <v>147520</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F40" s="35"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="30" t="s">
         <v>112</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>120</v>
       </c>
@@ -3794,14 +3794,14 @@
         <v>117</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="str">
         <f>A36</f>
         <v>CUSTOMER</v>
@@ -3820,7 +3820,7 @@
         <v>135600</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>114</v>
       </c>
@@ -3851,30 +3851,30 @@
       <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.26953125" style="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="16.36328125" style="46" customWidth="1"/>
-    <col min="4" max="4" width="19.36328125" style="44" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.6328125" style="46" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.90625" style="44" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.90625" style="91" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="44"/>
+    <col min="1" max="1" width="30.28515625" style="44" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="16.42578125" style="46" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" style="44" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="44" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="91" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.7109375" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="96" t="s">
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
       <c r="G1" s="91">
         <v>50000</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="56"/>
       <c r="B2" s="56"/>
       <c r="C2" s="56"/>
@@ -3890,7 +3890,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="45" t="s">
         <v>97</v>
       </c>
@@ -3914,7 +3914,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="45" t="s">
         <v>145</v>
       </c>
@@ -3933,7 +3933,7 @@
         <v>38000</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="45" t="s">
         <v>159</v>
       </c>
@@ -3948,14 +3948,14 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="57"/>
       <c r="B6" s="59"/>
       <c r="C6" s="59"/>
       <c r="D6" s="57"/>
       <c r="E6" s="59"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="63" t="s">
         <v>146</v>
       </c>
@@ -3972,7 +3972,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="47">
         <v>10002</v>
       </c>
@@ -3987,7 +3987,7 @@
       </c>
       <c r="E8" s="47"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="47">
         <v>10003</v>
       </c>
@@ -4002,7 +4002,7 @@
       </c>
       <c r="E9" s="47"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="47">
         <v>10004</v>
       </c>
@@ -4017,7 +4017,7 @@
       </c>
       <c r="E10" s="47"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="61">
         <v>10005</v>
       </c>
@@ -4032,11 +4032,11 @@
       </c>
       <c r="E11" s="47"/>
     </row>
-    <row r="12" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="97" t="s">
+    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="105" t="s">
         <v>158</v>
       </c>
-      <c r="B12" s="98"/>
+      <c r="B12" s="106"/>
       <c r="C12" s="51">
         <f>SUM(C8:C11)</f>
         <v>140000</v>
@@ -4047,12 +4047,12 @@
       </c>
       <c r="E12" s="51"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="54" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D15" s="55" t="s">
         <v>31</v>
       </c>
@@ -4060,7 +4060,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="44" t="str">
         <f>"CASH IN BANK"&amp;" "&amp;"-"&amp;" "&amp;E5</f>
         <v>CASH IN BANK - DBP</v>
@@ -4070,7 +4070,7 @@
         <v>73000</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="66" t="str">
         <f>"ACCOUNTS RECEIVABLE"&amp;" "&amp;"-"&amp;" "&amp;B4</f>
         <v>ACCOUNTS RECEIVABLE - JOHN SIDNEY</v>
@@ -4080,57 +4080,57 @@
         <v>73000</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="65">
         <v>45206</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="54" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="54" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="44" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="44" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="44" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="54" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="44" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="44" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="44" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B37" s="75" t="s">
         <v>370</v>
       </c>
@@ -4147,7 +4147,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B38" s="93">
         <v>45171</v>
       </c>
@@ -4163,10 +4163,10 @@
       </c>
       <c r="F38" s="95">
         <f ca="1">(NOW()-B38)</f>
-        <v>98.522690740741382</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+        <v>132.16886145833269</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B39" s="93">
         <v>45171</v>
       </c>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="54" t="s">
         <v>376</v>
       </c>
@@ -4208,20 +4208,20 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.90625" customWidth="1"/>
-    <col min="3" max="3" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.81640625" style="13" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>125</v>
       </c>
@@ -4233,7 +4233,7 @@
       </c>
       <c r="D3" s="15"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>126</v>
       </c>
@@ -4245,11 +4245,11 @@
       </c>
       <c r="D4" s="41"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
       <c r="D5"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>127</v>
       </c>
@@ -4260,7 +4260,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>1500</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="42" t="s">
         <v>131</v>
       </c>
@@ -4280,7 +4280,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>135</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="39" t="s">
         <v>136</v>
       </c>
@@ -4312,33 +4312,33 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.26953125" style="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.6328125" style="46" customWidth="1"/>
-    <col min="3" max="3" width="36.26953125" style="46" customWidth="1"/>
-    <col min="4" max="4" width="19.36328125" style="44" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.6328125" style="46" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" style="44"/>
-    <col min="7" max="7" width="29.7265625" style="44" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.7265625" style="71" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.54296875" style="71" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.7265625" style="44"/>
+    <col min="1" max="1" width="30.28515625" style="44" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.5703125" style="46" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" style="46" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" style="44" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="44"/>
+    <col min="7" max="7" width="29.7109375" style="44" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.7109375" style="71" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="71" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.7109375" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="99" t="s">
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="107" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
       <c r="G1" s="44" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="56"/>
       <c r="B2" s="56"/>
       <c r="C2" s="56"/>
@@ -4348,7 +4348,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="45" t="s">
         <v>163</v>
       </c>
@@ -4366,7 +4366,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="45" t="s">
         <v>164</v>
       </c>
@@ -4382,7 +4382,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="45" t="s">
         <v>165</v>
       </c>
@@ -4402,7 +4402,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="57"/>
       <c r="B6" s="59"/>
       <c r="C6" s="59"/>
@@ -4412,7 +4412,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="63" t="s">
         <v>173</v>
       </c>
@@ -4427,7 +4427,7 @@
       </c>
       <c r="E7" s="60"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="47" t="str">
         <f>VLOOKUP(($B$5&amp;"1"),$G$14:$H$27,2,FALSE)</f>
         <v>Salaries &amp; Wages</v>
@@ -4441,7 +4441,7 @@
       <c r="D8" s="49"/>
       <c r="E8" s="59"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="47" t="str">
         <f>VLOOKUP(($B$5&amp;"2"),$G$14:$H$27,2,FALSE)</f>
         <v>Pag-ibig Contribution</v>
@@ -4455,7 +4455,7 @@
       </c>
       <c r="E9" s="59"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="str">
         <f>VLOOKUP(($B$5&amp;"3"),$G$14:$H$27,2,FALSE)</f>
         <v>Philhealth Contribution</v>
@@ -4469,7 +4469,7 @@
       </c>
       <c r="E10" s="59"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="47" t="str">
         <f>"Cash in Bank"&amp;"-"&amp;" "&amp;E5</f>
         <v>Cash in Bank- DBP</v>
@@ -4484,11 +4484,11 @@
       </c>
       <c r="E11" s="59"/>
     </row>
-    <row r="12" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="97" t="s">
+    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="105" t="s">
         <v>158</v>
       </c>
-      <c r="B12" s="98"/>
+      <c r="B12" s="106"/>
       <c r="C12" s="51">
         <f>SUM(C8:C11)</f>
         <v>85000</v>
@@ -4499,7 +4499,7 @@
       </c>
       <c r="E12" s="68"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H13" s="75" t="s">
         <v>31</v>
       </c>
@@ -4507,7 +4507,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F14" s="44">
         <v>1</v>
       </c>
@@ -4518,7 +4518,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="90" t="s">
         <v>357</v>
       </c>
@@ -4532,7 +4532,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F16" s="44">
         <v>3</v>
       </c>
@@ -4543,7 +4543,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G17" s="44" t="s">
         <v>184</v>
       </c>
@@ -4551,12 +4551,12 @@
         <v>185</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H18" s="73" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="90" t="s">
         <v>358</v>
       </c>
@@ -4564,12 +4564,12 @@
         <v>187</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H20" s="73" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="90" t="s">
         <v>359</v>
       </c>
@@ -4577,28 +4577,28 @@
         <v>189</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H22" s="73" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H23" s="73" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H24" s="73" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H25" s="73"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H26" s="73"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="65">
         <v>45206</v>
       </c>
@@ -4607,7 +4607,7 @@
       </c>
       <c r="I27" s="74"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G30" s="44" t="s">
         <v>166</v>
       </c>
@@ -4615,10 +4615,10 @@
         <v>179</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I31" s="74"/>
     </row>
-    <row r="33" spans="7:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G33" s="44" t="s">
         <v>168</v>
       </c>
@@ -4626,7 +4626,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="34" spans="7:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="7:9" x14ac:dyDescent="0.25">
       <c r="I34" s="74"/>
     </row>
   </sheetData>
@@ -4653,14 +4653,14 @@
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.6328125" style="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="47.26953125" style="89" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="44"/>
+    <col min="1" max="1" width="28.5703125" style="44" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="47.28515625" style="89" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.7109375" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="75" t="s">
         <v>171</v>
       </c>
@@ -4671,7 +4671,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
         <v>62</v>
       </c>
@@ -4680,74 +4680,74 @@
         <v>SALARIES AND WAGES</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C3" s="88" t="str">
         <f>[1]Recovered_Sheet1!$A$87</f>
         <v>DUE TO BIR - Withholding Tax Compensation</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" s="88" t="str">
         <f>'CHART OF ACCOUNTS'!A89</f>
         <v>DUE TO SSS - Contribution</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" s="88" t="str">
         <f>'CHART OF ACCOUNTS'!A90</f>
         <v>DUE TO SSS - Employees Loan</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" s="88" t="str">
         <f>'CHART OF ACCOUNTS'!A91</f>
         <v>DUE TO PAG-IBIG - Contribution</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" s="88" t="str">
         <f>'CHART OF ACCOUNTS'!A92</f>
         <v>DUE TO PAG-IBIG - Employees Loan</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" s="88" t="str">
         <f>'CHART OF ACCOUNTS'!A93</f>
         <v>DUE TO PHILHEALTH - Contribution</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" s="88" t="str">
         <f>'CHART OF ACCOUNTS'!A25</f>
         <v xml:space="preserve">VALE DUE FROM OFFICERS AND  EMPLOYEES </v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" s="88" t="str">
         <f>'CHART OF ACCOUNTS'!A26</f>
         <v>OTHER RECEIVABLES - CHARGES EMPLOYEES</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" s="88" t="str">
         <f>'CHART OF ACCOUNTS'!A85</f>
         <v>DUE TO OFFICERS AND  EMPLOYEES - DEPOSIT</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" s="88"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C13" s="89" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C14" s="89" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="44" t="s">
         <v>166</v>
       </c>
@@ -4759,12 +4759,12 @@
         <v>347</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C17" s="89" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="44" t="s">
         <v>167</v>
       </c>
@@ -4776,12 +4776,12 @@
         <v>347</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C20" s="89" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="44" t="s">
         <v>355</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C23" s="89" t="s">
         <v>348</v>
       </c>
@@ -4808,407 +4808,407 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K180"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110:A134"/>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="52.81640625" style="77" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.26953125" style="77" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="13.26953125" style="77" customWidth="1"/>
-    <col min="4" max="4" width="41.1796875" style="77" customWidth="1"/>
-    <col min="5" max="5" width="6.81640625" style="77" hidden="1" customWidth="1"/>
-    <col min="6" max="256" width="11.453125" style="77"/>
-    <col min="257" max="257" width="52.81640625" style="77" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52.85546875" style="77" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="77" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="77" customWidth="1"/>
+    <col min="4" max="4" width="41.140625" style="77" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" style="77" hidden="1" customWidth="1"/>
+    <col min="6" max="256" width="11.42578125" style="77"/>
+    <col min="257" max="257" width="52.85546875" style="77" bestFit="1" customWidth="1"/>
     <col min="258" max="258" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="259" max="259" width="13.26953125" style="77" customWidth="1"/>
-    <col min="260" max="260" width="22.08984375" style="77" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="13.28515625" style="77" customWidth="1"/>
+    <col min="260" max="260" width="22.140625" style="77" bestFit="1" customWidth="1"/>
     <col min="261" max="261" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="262" max="512" width="11.453125" style="77"/>
-    <col min="513" max="513" width="52.81640625" style="77" bestFit="1" customWidth="1"/>
+    <col min="262" max="512" width="11.42578125" style="77"/>
+    <col min="513" max="513" width="52.85546875" style="77" bestFit="1" customWidth="1"/>
     <col min="514" max="514" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="515" max="515" width="13.26953125" style="77" customWidth="1"/>
-    <col min="516" max="516" width="22.08984375" style="77" bestFit="1" customWidth="1"/>
+    <col min="515" max="515" width="13.28515625" style="77" customWidth="1"/>
+    <col min="516" max="516" width="22.140625" style="77" bestFit="1" customWidth="1"/>
     <col min="517" max="517" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="518" max="768" width="11.453125" style="77"/>
-    <col min="769" max="769" width="52.81640625" style="77" bestFit="1" customWidth="1"/>
+    <col min="518" max="768" width="11.42578125" style="77"/>
+    <col min="769" max="769" width="52.85546875" style="77" bestFit="1" customWidth="1"/>
     <col min="770" max="770" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="771" max="771" width="13.26953125" style="77" customWidth="1"/>
-    <col min="772" max="772" width="22.08984375" style="77" bestFit="1" customWidth="1"/>
+    <col min="771" max="771" width="13.28515625" style="77" customWidth="1"/>
+    <col min="772" max="772" width="22.140625" style="77" bestFit="1" customWidth="1"/>
     <col min="773" max="773" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="774" max="1024" width="11.453125" style="77"/>
-    <col min="1025" max="1025" width="52.81640625" style="77" bestFit="1" customWidth="1"/>
+    <col min="774" max="1024" width="11.42578125" style="77"/>
+    <col min="1025" max="1025" width="52.85546875" style="77" bestFit="1" customWidth="1"/>
     <col min="1026" max="1026" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="1027" max="1027" width="13.26953125" style="77" customWidth="1"/>
-    <col min="1028" max="1028" width="22.08984375" style="77" bestFit="1" customWidth="1"/>
+    <col min="1027" max="1027" width="13.28515625" style="77" customWidth="1"/>
+    <col min="1028" max="1028" width="22.140625" style="77" bestFit="1" customWidth="1"/>
     <col min="1029" max="1029" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="1030" max="1280" width="11.453125" style="77"/>
-    <col min="1281" max="1281" width="52.81640625" style="77" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1280" width="11.42578125" style="77"/>
+    <col min="1281" max="1281" width="52.85546875" style="77" bestFit="1" customWidth="1"/>
     <col min="1282" max="1282" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="1283" max="1283" width="13.26953125" style="77" customWidth="1"/>
-    <col min="1284" max="1284" width="22.08984375" style="77" bestFit="1" customWidth="1"/>
+    <col min="1283" max="1283" width="13.28515625" style="77" customWidth="1"/>
+    <col min="1284" max="1284" width="22.140625" style="77" bestFit="1" customWidth="1"/>
     <col min="1285" max="1285" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="1286" max="1536" width="11.453125" style="77"/>
-    <col min="1537" max="1537" width="52.81640625" style="77" bestFit="1" customWidth="1"/>
+    <col min="1286" max="1536" width="11.42578125" style="77"/>
+    <col min="1537" max="1537" width="52.85546875" style="77" bestFit="1" customWidth="1"/>
     <col min="1538" max="1538" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="1539" max="1539" width="13.26953125" style="77" customWidth="1"/>
-    <col min="1540" max="1540" width="22.08984375" style="77" bestFit="1" customWidth="1"/>
+    <col min="1539" max="1539" width="13.28515625" style="77" customWidth="1"/>
+    <col min="1540" max="1540" width="22.140625" style="77" bestFit="1" customWidth="1"/>
     <col min="1541" max="1541" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="1542" max="1792" width="11.453125" style="77"/>
-    <col min="1793" max="1793" width="52.81640625" style="77" bestFit="1" customWidth="1"/>
+    <col min="1542" max="1792" width="11.42578125" style="77"/>
+    <col min="1793" max="1793" width="52.85546875" style="77" bestFit="1" customWidth="1"/>
     <col min="1794" max="1794" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="1795" max="1795" width="13.26953125" style="77" customWidth="1"/>
-    <col min="1796" max="1796" width="22.08984375" style="77" bestFit="1" customWidth="1"/>
+    <col min="1795" max="1795" width="13.28515625" style="77" customWidth="1"/>
+    <col min="1796" max="1796" width="22.140625" style="77" bestFit="1" customWidth="1"/>
     <col min="1797" max="1797" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="1798" max="2048" width="11.453125" style="77"/>
-    <col min="2049" max="2049" width="52.81640625" style="77" bestFit="1" customWidth="1"/>
+    <col min="1798" max="2048" width="11.42578125" style="77"/>
+    <col min="2049" max="2049" width="52.85546875" style="77" bestFit="1" customWidth="1"/>
     <col min="2050" max="2050" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="2051" max="2051" width="13.26953125" style="77" customWidth="1"/>
-    <col min="2052" max="2052" width="22.08984375" style="77" bestFit="1" customWidth="1"/>
+    <col min="2051" max="2051" width="13.28515625" style="77" customWidth="1"/>
+    <col min="2052" max="2052" width="22.140625" style="77" bestFit="1" customWidth="1"/>
     <col min="2053" max="2053" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="2054" max="2304" width="11.453125" style="77"/>
-    <col min="2305" max="2305" width="52.81640625" style="77" bestFit="1" customWidth="1"/>
+    <col min="2054" max="2304" width="11.42578125" style="77"/>
+    <col min="2305" max="2305" width="52.85546875" style="77" bestFit="1" customWidth="1"/>
     <col min="2306" max="2306" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="2307" max="2307" width="13.26953125" style="77" customWidth="1"/>
-    <col min="2308" max="2308" width="22.08984375" style="77" bestFit="1" customWidth="1"/>
+    <col min="2307" max="2307" width="13.28515625" style="77" customWidth="1"/>
+    <col min="2308" max="2308" width="22.140625" style="77" bestFit="1" customWidth="1"/>
     <col min="2309" max="2309" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="2310" max="2560" width="11.453125" style="77"/>
-    <col min="2561" max="2561" width="52.81640625" style="77" bestFit="1" customWidth="1"/>
+    <col min="2310" max="2560" width="11.42578125" style="77"/>
+    <col min="2561" max="2561" width="52.85546875" style="77" bestFit="1" customWidth="1"/>
     <col min="2562" max="2562" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="2563" max="2563" width="13.26953125" style="77" customWidth="1"/>
-    <col min="2564" max="2564" width="22.08984375" style="77" bestFit="1" customWidth="1"/>
+    <col min="2563" max="2563" width="13.28515625" style="77" customWidth="1"/>
+    <col min="2564" max="2564" width="22.140625" style="77" bestFit="1" customWidth="1"/>
     <col min="2565" max="2565" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="2566" max="2816" width="11.453125" style="77"/>
-    <col min="2817" max="2817" width="52.81640625" style="77" bestFit="1" customWidth="1"/>
+    <col min="2566" max="2816" width="11.42578125" style="77"/>
+    <col min="2817" max="2817" width="52.85546875" style="77" bestFit="1" customWidth="1"/>
     <col min="2818" max="2818" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="2819" max="2819" width="13.26953125" style="77" customWidth="1"/>
-    <col min="2820" max="2820" width="22.08984375" style="77" bestFit="1" customWidth="1"/>
+    <col min="2819" max="2819" width="13.28515625" style="77" customWidth="1"/>
+    <col min="2820" max="2820" width="22.140625" style="77" bestFit="1" customWidth="1"/>
     <col min="2821" max="2821" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="2822" max="3072" width="11.453125" style="77"/>
-    <col min="3073" max="3073" width="52.81640625" style="77" bestFit="1" customWidth="1"/>
+    <col min="2822" max="3072" width="11.42578125" style="77"/>
+    <col min="3073" max="3073" width="52.85546875" style="77" bestFit="1" customWidth="1"/>
     <col min="3074" max="3074" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="3075" max="3075" width="13.26953125" style="77" customWidth="1"/>
-    <col min="3076" max="3076" width="22.08984375" style="77" bestFit="1" customWidth="1"/>
+    <col min="3075" max="3075" width="13.28515625" style="77" customWidth="1"/>
+    <col min="3076" max="3076" width="22.140625" style="77" bestFit="1" customWidth="1"/>
     <col min="3077" max="3077" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="3078" max="3328" width="11.453125" style="77"/>
-    <col min="3329" max="3329" width="52.81640625" style="77" bestFit="1" customWidth="1"/>
+    <col min="3078" max="3328" width="11.42578125" style="77"/>
+    <col min="3329" max="3329" width="52.85546875" style="77" bestFit="1" customWidth="1"/>
     <col min="3330" max="3330" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="3331" max="3331" width="13.26953125" style="77" customWidth="1"/>
-    <col min="3332" max="3332" width="22.08984375" style="77" bestFit="1" customWidth="1"/>
+    <col min="3331" max="3331" width="13.28515625" style="77" customWidth="1"/>
+    <col min="3332" max="3332" width="22.140625" style="77" bestFit="1" customWidth="1"/>
     <col min="3333" max="3333" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="3334" max="3584" width="11.453125" style="77"/>
-    <col min="3585" max="3585" width="52.81640625" style="77" bestFit="1" customWidth="1"/>
+    <col min="3334" max="3584" width="11.42578125" style="77"/>
+    <col min="3585" max="3585" width="52.85546875" style="77" bestFit="1" customWidth="1"/>
     <col min="3586" max="3586" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="3587" max="3587" width="13.26953125" style="77" customWidth="1"/>
-    <col min="3588" max="3588" width="22.08984375" style="77" bestFit="1" customWidth="1"/>
+    <col min="3587" max="3587" width="13.28515625" style="77" customWidth="1"/>
+    <col min="3588" max="3588" width="22.140625" style="77" bestFit="1" customWidth="1"/>
     <col min="3589" max="3589" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="3590" max="3840" width="11.453125" style="77"/>
-    <col min="3841" max="3841" width="52.81640625" style="77" bestFit="1" customWidth="1"/>
+    <col min="3590" max="3840" width="11.42578125" style="77"/>
+    <col min="3841" max="3841" width="52.85546875" style="77" bestFit="1" customWidth="1"/>
     <col min="3842" max="3842" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="3843" max="3843" width="13.26953125" style="77" customWidth="1"/>
-    <col min="3844" max="3844" width="22.08984375" style="77" bestFit="1" customWidth="1"/>
+    <col min="3843" max="3843" width="13.28515625" style="77" customWidth="1"/>
+    <col min="3844" max="3844" width="22.140625" style="77" bestFit="1" customWidth="1"/>
     <col min="3845" max="3845" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="3846" max="4096" width="11.453125" style="77"/>
-    <col min="4097" max="4097" width="52.81640625" style="77" bestFit="1" customWidth="1"/>
+    <col min="3846" max="4096" width="11.42578125" style="77"/>
+    <col min="4097" max="4097" width="52.85546875" style="77" bestFit="1" customWidth="1"/>
     <col min="4098" max="4098" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="4099" max="4099" width="13.26953125" style="77" customWidth="1"/>
-    <col min="4100" max="4100" width="22.08984375" style="77" bestFit="1" customWidth="1"/>
+    <col min="4099" max="4099" width="13.28515625" style="77" customWidth="1"/>
+    <col min="4100" max="4100" width="22.140625" style="77" bestFit="1" customWidth="1"/>
     <col min="4101" max="4101" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="4102" max="4352" width="11.453125" style="77"/>
-    <col min="4353" max="4353" width="52.81640625" style="77" bestFit="1" customWidth="1"/>
+    <col min="4102" max="4352" width="11.42578125" style="77"/>
+    <col min="4353" max="4353" width="52.85546875" style="77" bestFit="1" customWidth="1"/>
     <col min="4354" max="4354" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="4355" max="4355" width="13.26953125" style="77" customWidth="1"/>
-    <col min="4356" max="4356" width="22.08984375" style="77" bestFit="1" customWidth="1"/>
+    <col min="4355" max="4355" width="13.28515625" style="77" customWidth="1"/>
+    <col min="4356" max="4356" width="22.140625" style="77" bestFit="1" customWidth="1"/>
     <col min="4357" max="4357" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="4358" max="4608" width="11.453125" style="77"/>
-    <col min="4609" max="4609" width="52.81640625" style="77" bestFit="1" customWidth="1"/>
+    <col min="4358" max="4608" width="11.42578125" style="77"/>
+    <col min="4609" max="4609" width="52.85546875" style="77" bestFit="1" customWidth="1"/>
     <col min="4610" max="4610" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="4611" max="4611" width="13.26953125" style="77" customWidth="1"/>
-    <col min="4612" max="4612" width="22.08984375" style="77" bestFit="1" customWidth="1"/>
+    <col min="4611" max="4611" width="13.28515625" style="77" customWidth="1"/>
+    <col min="4612" max="4612" width="22.140625" style="77" bestFit="1" customWidth="1"/>
     <col min="4613" max="4613" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="4614" max="4864" width="11.453125" style="77"/>
-    <col min="4865" max="4865" width="52.81640625" style="77" bestFit="1" customWidth="1"/>
+    <col min="4614" max="4864" width="11.42578125" style="77"/>
+    <col min="4865" max="4865" width="52.85546875" style="77" bestFit="1" customWidth="1"/>
     <col min="4866" max="4866" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="4867" max="4867" width="13.26953125" style="77" customWidth="1"/>
-    <col min="4868" max="4868" width="22.08984375" style="77" bestFit="1" customWidth="1"/>
+    <col min="4867" max="4867" width="13.28515625" style="77" customWidth="1"/>
+    <col min="4868" max="4868" width="22.140625" style="77" bestFit="1" customWidth="1"/>
     <col min="4869" max="4869" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="4870" max="5120" width="11.453125" style="77"/>
-    <col min="5121" max="5121" width="52.81640625" style="77" bestFit="1" customWidth="1"/>
+    <col min="4870" max="5120" width="11.42578125" style="77"/>
+    <col min="5121" max="5121" width="52.85546875" style="77" bestFit="1" customWidth="1"/>
     <col min="5122" max="5122" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="5123" max="5123" width="13.26953125" style="77" customWidth="1"/>
-    <col min="5124" max="5124" width="22.08984375" style="77" bestFit="1" customWidth="1"/>
+    <col min="5123" max="5123" width="13.28515625" style="77" customWidth="1"/>
+    <col min="5124" max="5124" width="22.140625" style="77" bestFit="1" customWidth="1"/>
     <col min="5125" max="5125" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="5126" max="5376" width="11.453125" style="77"/>
-    <col min="5377" max="5377" width="52.81640625" style="77" bestFit="1" customWidth="1"/>
+    <col min="5126" max="5376" width="11.42578125" style="77"/>
+    <col min="5377" max="5377" width="52.85546875" style="77" bestFit="1" customWidth="1"/>
     <col min="5378" max="5378" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="5379" max="5379" width="13.26953125" style="77" customWidth="1"/>
-    <col min="5380" max="5380" width="22.08984375" style="77" bestFit="1" customWidth="1"/>
+    <col min="5379" max="5379" width="13.28515625" style="77" customWidth="1"/>
+    <col min="5380" max="5380" width="22.140625" style="77" bestFit="1" customWidth="1"/>
     <col min="5381" max="5381" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="5382" max="5632" width="11.453125" style="77"/>
-    <col min="5633" max="5633" width="52.81640625" style="77" bestFit="1" customWidth="1"/>
+    <col min="5382" max="5632" width="11.42578125" style="77"/>
+    <col min="5633" max="5633" width="52.85546875" style="77" bestFit="1" customWidth="1"/>
     <col min="5634" max="5634" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="5635" max="5635" width="13.26953125" style="77" customWidth="1"/>
-    <col min="5636" max="5636" width="22.08984375" style="77" bestFit="1" customWidth="1"/>
+    <col min="5635" max="5635" width="13.28515625" style="77" customWidth="1"/>
+    <col min="5636" max="5636" width="22.140625" style="77" bestFit="1" customWidth="1"/>
     <col min="5637" max="5637" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="5638" max="5888" width="11.453125" style="77"/>
-    <col min="5889" max="5889" width="52.81640625" style="77" bestFit="1" customWidth="1"/>
+    <col min="5638" max="5888" width="11.42578125" style="77"/>
+    <col min="5889" max="5889" width="52.85546875" style="77" bestFit="1" customWidth="1"/>
     <col min="5890" max="5890" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="5891" max="5891" width="13.26953125" style="77" customWidth="1"/>
-    <col min="5892" max="5892" width="22.08984375" style="77" bestFit="1" customWidth="1"/>
+    <col min="5891" max="5891" width="13.28515625" style="77" customWidth="1"/>
+    <col min="5892" max="5892" width="22.140625" style="77" bestFit="1" customWidth="1"/>
     <col min="5893" max="5893" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="5894" max="6144" width="11.453125" style="77"/>
-    <col min="6145" max="6145" width="52.81640625" style="77" bestFit="1" customWidth="1"/>
+    <col min="5894" max="6144" width="11.42578125" style="77"/>
+    <col min="6145" max="6145" width="52.85546875" style="77" bestFit="1" customWidth="1"/>
     <col min="6146" max="6146" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="6147" max="6147" width="13.26953125" style="77" customWidth="1"/>
-    <col min="6148" max="6148" width="22.08984375" style="77" bestFit="1" customWidth="1"/>
+    <col min="6147" max="6147" width="13.28515625" style="77" customWidth="1"/>
+    <col min="6148" max="6148" width="22.140625" style="77" bestFit="1" customWidth="1"/>
     <col min="6149" max="6149" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="6150" max="6400" width="11.453125" style="77"/>
-    <col min="6401" max="6401" width="52.81640625" style="77" bestFit="1" customWidth="1"/>
+    <col min="6150" max="6400" width="11.42578125" style="77"/>
+    <col min="6401" max="6401" width="52.85546875" style="77" bestFit="1" customWidth="1"/>
     <col min="6402" max="6402" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="6403" max="6403" width="13.26953125" style="77" customWidth="1"/>
-    <col min="6404" max="6404" width="22.08984375" style="77" bestFit="1" customWidth="1"/>
+    <col min="6403" max="6403" width="13.28515625" style="77" customWidth="1"/>
+    <col min="6404" max="6404" width="22.140625" style="77" bestFit="1" customWidth="1"/>
     <col min="6405" max="6405" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="6406" max="6656" width="11.453125" style="77"/>
-    <col min="6657" max="6657" width="52.81640625" style="77" bestFit="1" customWidth="1"/>
+    <col min="6406" max="6656" width="11.42578125" style="77"/>
+    <col min="6657" max="6657" width="52.85546875" style="77" bestFit="1" customWidth="1"/>
     <col min="6658" max="6658" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="6659" max="6659" width="13.26953125" style="77" customWidth="1"/>
-    <col min="6660" max="6660" width="22.08984375" style="77" bestFit="1" customWidth="1"/>
+    <col min="6659" max="6659" width="13.28515625" style="77" customWidth="1"/>
+    <col min="6660" max="6660" width="22.140625" style="77" bestFit="1" customWidth="1"/>
     <col min="6661" max="6661" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="6662" max="6912" width="11.453125" style="77"/>
-    <col min="6913" max="6913" width="52.81640625" style="77" bestFit="1" customWidth="1"/>
+    <col min="6662" max="6912" width="11.42578125" style="77"/>
+    <col min="6913" max="6913" width="52.85546875" style="77" bestFit="1" customWidth="1"/>
     <col min="6914" max="6914" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="6915" max="6915" width="13.26953125" style="77" customWidth="1"/>
-    <col min="6916" max="6916" width="22.08984375" style="77" bestFit="1" customWidth="1"/>
+    <col min="6915" max="6915" width="13.28515625" style="77" customWidth="1"/>
+    <col min="6916" max="6916" width="22.140625" style="77" bestFit="1" customWidth="1"/>
     <col min="6917" max="6917" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="6918" max="7168" width="11.453125" style="77"/>
-    <col min="7169" max="7169" width="52.81640625" style="77" bestFit="1" customWidth="1"/>
+    <col min="6918" max="7168" width="11.42578125" style="77"/>
+    <col min="7169" max="7169" width="52.85546875" style="77" bestFit="1" customWidth="1"/>
     <col min="7170" max="7170" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="7171" max="7171" width="13.26953125" style="77" customWidth="1"/>
-    <col min="7172" max="7172" width="22.08984375" style="77" bestFit="1" customWidth="1"/>
+    <col min="7171" max="7171" width="13.28515625" style="77" customWidth="1"/>
+    <col min="7172" max="7172" width="22.140625" style="77" bestFit="1" customWidth="1"/>
     <col min="7173" max="7173" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="7174" max="7424" width="11.453125" style="77"/>
-    <col min="7425" max="7425" width="52.81640625" style="77" bestFit="1" customWidth="1"/>
+    <col min="7174" max="7424" width="11.42578125" style="77"/>
+    <col min="7425" max="7425" width="52.85546875" style="77" bestFit="1" customWidth="1"/>
     <col min="7426" max="7426" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="7427" max="7427" width="13.26953125" style="77" customWidth="1"/>
-    <col min="7428" max="7428" width="22.08984375" style="77" bestFit="1" customWidth="1"/>
+    <col min="7427" max="7427" width="13.28515625" style="77" customWidth="1"/>
+    <col min="7428" max="7428" width="22.140625" style="77" bestFit="1" customWidth="1"/>
     <col min="7429" max="7429" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="7430" max="7680" width="11.453125" style="77"/>
-    <col min="7681" max="7681" width="52.81640625" style="77" bestFit="1" customWidth="1"/>
+    <col min="7430" max="7680" width="11.42578125" style="77"/>
+    <col min="7681" max="7681" width="52.85546875" style="77" bestFit="1" customWidth="1"/>
     <col min="7682" max="7682" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="7683" max="7683" width="13.26953125" style="77" customWidth="1"/>
-    <col min="7684" max="7684" width="22.08984375" style="77" bestFit="1" customWidth="1"/>
+    <col min="7683" max="7683" width="13.28515625" style="77" customWidth="1"/>
+    <col min="7684" max="7684" width="22.140625" style="77" bestFit="1" customWidth="1"/>
     <col min="7685" max="7685" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="7686" max="7936" width="11.453125" style="77"/>
-    <col min="7937" max="7937" width="52.81640625" style="77" bestFit="1" customWidth="1"/>
+    <col min="7686" max="7936" width="11.42578125" style="77"/>
+    <col min="7937" max="7937" width="52.85546875" style="77" bestFit="1" customWidth="1"/>
     <col min="7938" max="7938" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="7939" max="7939" width="13.26953125" style="77" customWidth="1"/>
-    <col min="7940" max="7940" width="22.08984375" style="77" bestFit="1" customWidth="1"/>
+    <col min="7939" max="7939" width="13.28515625" style="77" customWidth="1"/>
+    <col min="7940" max="7940" width="22.140625" style="77" bestFit="1" customWidth="1"/>
     <col min="7941" max="7941" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="7942" max="8192" width="11.453125" style="77"/>
-    <col min="8193" max="8193" width="52.81640625" style="77" bestFit="1" customWidth="1"/>
+    <col min="7942" max="8192" width="11.42578125" style="77"/>
+    <col min="8193" max="8193" width="52.85546875" style="77" bestFit="1" customWidth="1"/>
     <col min="8194" max="8194" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="8195" max="8195" width="13.26953125" style="77" customWidth="1"/>
-    <col min="8196" max="8196" width="22.08984375" style="77" bestFit="1" customWidth="1"/>
+    <col min="8195" max="8195" width="13.28515625" style="77" customWidth="1"/>
+    <col min="8196" max="8196" width="22.140625" style="77" bestFit="1" customWidth="1"/>
     <col min="8197" max="8197" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="8198" max="8448" width="11.453125" style="77"/>
-    <col min="8449" max="8449" width="52.81640625" style="77" bestFit="1" customWidth="1"/>
+    <col min="8198" max="8448" width="11.42578125" style="77"/>
+    <col min="8449" max="8449" width="52.85546875" style="77" bestFit="1" customWidth="1"/>
     <col min="8450" max="8450" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="8451" max="8451" width="13.26953125" style="77" customWidth="1"/>
-    <col min="8452" max="8452" width="22.08984375" style="77" bestFit="1" customWidth="1"/>
+    <col min="8451" max="8451" width="13.28515625" style="77" customWidth="1"/>
+    <col min="8452" max="8452" width="22.140625" style="77" bestFit="1" customWidth="1"/>
     <col min="8453" max="8453" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="8454" max="8704" width="11.453125" style="77"/>
-    <col min="8705" max="8705" width="52.81640625" style="77" bestFit="1" customWidth="1"/>
+    <col min="8454" max="8704" width="11.42578125" style="77"/>
+    <col min="8705" max="8705" width="52.85546875" style="77" bestFit="1" customWidth="1"/>
     <col min="8706" max="8706" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="8707" max="8707" width="13.26953125" style="77" customWidth="1"/>
-    <col min="8708" max="8708" width="22.08984375" style="77" bestFit="1" customWidth="1"/>
+    <col min="8707" max="8707" width="13.28515625" style="77" customWidth="1"/>
+    <col min="8708" max="8708" width="22.140625" style="77" bestFit="1" customWidth="1"/>
     <col min="8709" max="8709" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="8710" max="8960" width="11.453125" style="77"/>
-    <col min="8961" max="8961" width="52.81640625" style="77" bestFit="1" customWidth="1"/>
+    <col min="8710" max="8960" width="11.42578125" style="77"/>
+    <col min="8961" max="8961" width="52.85546875" style="77" bestFit="1" customWidth="1"/>
     <col min="8962" max="8962" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="8963" max="8963" width="13.26953125" style="77" customWidth="1"/>
-    <col min="8964" max="8964" width="22.08984375" style="77" bestFit="1" customWidth="1"/>
+    <col min="8963" max="8963" width="13.28515625" style="77" customWidth="1"/>
+    <col min="8964" max="8964" width="22.140625" style="77" bestFit="1" customWidth="1"/>
     <col min="8965" max="8965" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="8966" max="9216" width="11.453125" style="77"/>
-    <col min="9217" max="9217" width="52.81640625" style="77" bestFit="1" customWidth="1"/>
+    <col min="8966" max="9216" width="11.42578125" style="77"/>
+    <col min="9217" max="9217" width="52.85546875" style="77" bestFit="1" customWidth="1"/>
     <col min="9218" max="9218" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="9219" max="9219" width="13.26953125" style="77" customWidth="1"/>
-    <col min="9220" max="9220" width="22.08984375" style="77" bestFit="1" customWidth="1"/>
+    <col min="9219" max="9219" width="13.28515625" style="77" customWidth="1"/>
+    <col min="9220" max="9220" width="22.140625" style="77" bestFit="1" customWidth="1"/>
     <col min="9221" max="9221" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="9222" max="9472" width="11.453125" style="77"/>
-    <col min="9473" max="9473" width="52.81640625" style="77" bestFit="1" customWidth="1"/>
+    <col min="9222" max="9472" width="11.42578125" style="77"/>
+    <col min="9473" max="9473" width="52.85546875" style="77" bestFit="1" customWidth="1"/>
     <col min="9474" max="9474" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="9475" max="9475" width="13.26953125" style="77" customWidth="1"/>
-    <col min="9476" max="9476" width="22.08984375" style="77" bestFit="1" customWidth="1"/>
+    <col min="9475" max="9475" width="13.28515625" style="77" customWidth="1"/>
+    <col min="9476" max="9476" width="22.140625" style="77" bestFit="1" customWidth="1"/>
     <col min="9477" max="9477" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="9478" max="9728" width="11.453125" style="77"/>
-    <col min="9729" max="9729" width="52.81640625" style="77" bestFit="1" customWidth="1"/>
+    <col min="9478" max="9728" width="11.42578125" style="77"/>
+    <col min="9729" max="9729" width="52.85546875" style="77" bestFit="1" customWidth="1"/>
     <col min="9730" max="9730" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="9731" max="9731" width="13.26953125" style="77" customWidth="1"/>
-    <col min="9732" max="9732" width="22.08984375" style="77" bestFit="1" customWidth="1"/>
+    <col min="9731" max="9731" width="13.28515625" style="77" customWidth="1"/>
+    <col min="9732" max="9732" width="22.140625" style="77" bestFit="1" customWidth="1"/>
     <col min="9733" max="9733" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="9734" max="9984" width="11.453125" style="77"/>
-    <col min="9985" max="9985" width="52.81640625" style="77" bestFit="1" customWidth="1"/>
+    <col min="9734" max="9984" width="11.42578125" style="77"/>
+    <col min="9985" max="9985" width="52.85546875" style="77" bestFit="1" customWidth="1"/>
     <col min="9986" max="9986" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="9987" max="9987" width="13.26953125" style="77" customWidth="1"/>
-    <col min="9988" max="9988" width="22.08984375" style="77" bestFit="1" customWidth="1"/>
+    <col min="9987" max="9987" width="13.28515625" style="77" customWidth="1"/>
+    <col min="9988" max="9988" width="22.140625" style="77" bestFit="1" customWidth="1"/>
     <col min="9989" max="9989" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="9990" max="10240" width="11.453125" style="77"/>
-    <col min="10241" max="10241" width="52.81640625" style="77" bestFit="1" customWidth="1"/>
+    <col min="9990" max="10240" width="11.42578125" style="77"/>
+    <col min="10241" max="10241" width="52.85546875" style="77" bestFit="1" customWidth="1"/>
     <col min="10242" max="10242" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="10243" max="10243" width="13.26953125" style="77" customWidth="1"/>
-    <col min="10244" max="10244" width="22.08984375" style="77" bestFit="1" customWidth="1"/>
+    <col min="10243" max="10243" width="13.28515625" style="77" customWidth="1"/>
+    <col min="10244" max="10244" width="22.140625" style="77" bestFit="1" customWidth="1"/>
     <col min="10245" max="10245" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="10246" max="10496" width="11.453125" style="77"/>
-    <col min="10497" max="10497" width="52.81640625" style="77" bestFit="1" customWidth="1"/>
+    <col min="10246" max="10496" width="11.42578125" style="77"/>
+    <col min="10497" max="10497" width="52.85546875" style="77" bestFit="1" customWidth="1"/>
     <col min="10498" max="10498" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="10499" max="10499" width="13.26953125" style="77" customWidth="1"/>
-    <col min="10500" max="10500" width="22.08984375" style="77" bestFit="1" customWidth="1"/>
+    <col min="10499" max="10499" width="13.28515625" style="77" customWidth="1"/>
+    <col min="10500" max="10500" width="22.140625" style="77" bestFit="1" customWidth="1"/>
     <col min="10501" max="10501" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="10502" max="10752" width="11.453125" style="77"/>
-    <col min="10753" max="10753" width="52.81640625" style="77" bestFit="1" customWidth="1"/>
+    <col min="10502" max="10752" width="11.42578125" style="77"/>
+    <col min="10753" max="10753" width="52.85546875" style="77" bestFit="1" customWidth="1"/>
     <col min="10754" max="10754" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="10755" max="10755" width="13.26953125" style="77" customWidth="1"/>
-    <col min="10756" max="10756" width="22.08984375" style="77" bestFit="1" customWidth="1"/>
+    <col min="10755" max="10755" width="13.28515625" style="77" customWidth="1"/>
+    <col min="10756" max="10756" width="22.140625" style="77" bestFit="1" customWidth="1"/>
     <col min="10757" max="10757" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="10758" max="11008" width="11.453125" style="77"/>
-    <col min="11009" max="11009" width="52.81640625" style="77" bestFit="1" customWidth="1"/>
+    <col min="10758" max="11008" width="11.42578125" style="77"/>
+    <col min="11009" max="11009" width="52.85546875" style="77" bestFit="1" customWidth="1"/>
     <col min="11010" max="11010" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="11011" max="11011" width="13.26953125" style="77" customWidth="1"/>
-    <col min="11012" max="11012" width="22.08984375" style="77" bestFit="1" customWidth="1"/>
+    <col min="11011" max="11011" width="13.28515625" style="77" customWidth="1"/>
+    <col min="11012" max="11012" width="22.140625" style="77" bestFit="1" customWidth="1"/>
     <col min="11013" max="11013" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="11014" max="11264" width="11.453125" style="77"/>
-    <col min="11265" max="11265" width="52.81640625" style="77" bestFit="1" customWidth="1"/>
+    <col min="11014" max="11264" width="11.42578125" style="77"/>
+    <col min="11265" max="11265" width="52.85546875" style="77" bestFit="1" customWidth="1"/>
     <col min="11266" max="11266" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="11267" max="11267" width="13.26953125" style="77" customWidth="1"/>
-    <col min="11268" max="11268" width="22.08984375" style="77" bestFit="1" customWidth="1"/>
+    <col min="11267" max="11267" width="13.28515625" style="77" customWidth="1"/>
+    <col min="11268" max="11268" width="22.140625" style="77" bestFit="1" customWidth="1"/>
     <col min="11269" max="11269" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="11270" max="11520" width="11.453125" style="77"/>
-    <col min="11521" max="11521" width="52.81640625" style="77" bestFit="1" customWidth="1"/>
+    <col min="11270" max="11520" width="11.42578125" style="77"/>
+    <col min="11521" max="11521" width="52.85546875" style="77" bestFit="1" customWidth="1"/>
     <col min="11522" max="11522" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="11523" max="11523" width="13.26953125" style="77" customWidth="1"/>
-    <col min="11524" max="11524" width="22.08984375" style="77" bestFit="1" customWidth="1"/>
+    <col min="11523" max="11523" width="13.28515625" style="77" customWidth="1"/>
+    <col min="11524" max="11524" width="22.140625" style="77" bestFit="1" customWidth="1"/>
     <col min="11525" max="11525" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="11526" max="11776" width="11.453125" style="77"/>
-    <col min="11777" max="11777" width="52.81640625" style="77" bestFit="1" customWidth="1"/>
+    <col min="11526" max="11776" width="11.42578125" style="77"/>
+    <col min="11777" max="11777" width="52.85546875" style="77" bestFit="1" customWidth="1"/>
     <col min="11778" max="11778" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="11779" max="11779" width="13.26953125" style="77" customWidth="1"/>
-    <col min="11780" max="11780" width="22.08984375" style="77" bestFit="1" customWidth="1"/>
+    <col min="11779" max="11779" width="13.28515625" style="77" customWidth="1"/>
+    <col min="11780" max="11780" width="22.140625" style="77" bestFit="1" customWidth="1"/>
     <col min="11781" max="11781" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="11782" max="12032" width="11.453125" style="77"/>
-    <col min="12033" max="12033" width="52.81640625" style="77" bestFit="1" customWidth="1"/>
+    <col min="11782" max="12032" width="11.42578125" style="77"/>
+    <col min="12033" max="12033" width="52.85546875" style="77" bestFit="1" customWidth="1"/>
     <col min="12034" max="12034" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="12035" max="12035" width="13.26953125" style="77" customWidth="1"/>
-    <col min="12036" max="12036" width="22.08984375" style="77" bestFit="1" customWidth="1"/>
+    <col min="12035" max="12035" width="13.28515625" style="77" customWidth="1"/>
+    <col min="12036" max="12036" width="22.140625" style="77" bestFit="1" customWidth="1"/>
     <col min="12037" max="12037" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="12038" max="12288" width="11.453125" style="77"/>
-    <col min="12289" max="12289" width="52.81640625" style="77" bestFit="1" customWidth="1"/>
+    <col min="12038" max="12288" width="11.42578125" style="77"/>
+    <col min="12289" max="12289" width="52.85546875" style="77" bestFit="1" customWidth="1"/>
     <col min="12290" max="12290" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="12291" max="12291" width="13.26953125" style="77" customWidth="1"/>
-    <col min="12292" max="12292" width="22.08984375" style="77" bestFit="1" customWidth="1"/>
+    <col min="12291" max="12291" width="13.28515625" style="77" customWidth="1"/>
+    <col min="12292" max="12292" width="22.140625" style="77" bestFit="1" customWidth="1"/>
     <col min="12293" max="12293" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="12294" max="12544" width="11.453125" style="77"/>
-    <col min="12545" max="12545" width="52.81640625" style="77" bestFit="1" customWidth="1"/>
+    <col min="12294" max="12544" width="11.42578125" style="77"/>
+    <col min="12545" max="12545" width="52.85546875" style="77" bestFit="1" customWidth="1"/>
     <col min="12546" max="12546" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="12547" max="12547" width="13.26953125" style="77" customWidth="1"/>
-    <col min="12548" max="12548" width="22.08984375" style="77" bestFit="1" customWidth="1"/>
+    <col min="12547" max="12547" width="13.28515625" style="77" customWidth="1"/>
+    <col min="12548" max="12548" width="22.140625" style="77" bestFit="1" customWidth="1"/>
     <col min="12549" max="12549" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="12550" max="12800" width="11.453125" style="77"/>
-    <col min="12801" max="12801" width="52.81640625" style="77" bestFit="1" customWidth="1"/>
+    <col min="12550" max="12800" width="11.42578125" style="77"/>
+    <col min="12801" max="12801" width="52.85546875" style="77" bestFit="1" customWidth="1"/>
     <col min="12802" max="12802" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="12803" max="12803" width="13.26953125" style="77" customWidth="1"/>
-    <col min="12804" max="12804" width="22.08984375" style="77" bestFit="1" customWidth="1"/>
+    <col min="12803" max="12803" width="13.28515625" style="77" customWidth="1"/>
+    <col min="12804" max="12804" width="22.140625" style="77" bestFit="1" customWidth="1"/>
     <col min="12805" max="12805" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="12806" max="13056" width="11.453125" style="77"/>
-    <col min="13057" max="13057" width="52.81640625" style="77" bestFit="1" customWidth="1"/>
+    <col min="12806" max="13056" width="11.42578125" style="77"/>
+    <col min="13057" max="13057" width="52.85546875" style="77" bestFit="1" customWidth="1"/>
     <col min="13058" max="13058" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="13059" max="13059" width="13.26953125" style="77" customWidth="1"/>
-    <col min="13060" max="13060" width="22.08984375" style="77" bestFit="1" customWidth="1"/>
+    <col min="13059" max="13059" width="13.28515625" style="77" customWidth="1"/>
+    <col min="13060" max="13060" width="22.140625" style="77" bestFit="1" customWidth="1"/>
     <col min="13061" max="13061" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="13062" max="13312" width="11.453125" style="77"/>
-    <col min="13313" max="13313" width="52.81640625" style="77" bestFit="1" customWidth="1"/>
+    <col min="13062" max="13312" width="11.42578125" style="77"/>
+    <col min="13313" max="13313" width="52.85546875" style="77" bestFit="1" customWidth="1"/>
     <col min="13314" max="13314" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="13315" max="13315" width="13.26953125" style="77" customWidth="1"/>
-    <col min="13316" max="13316" width="22.08984375" style="77" bestFit="1" customWidth="1"/>
+    <col min="13315" max="13315" width="13.28515625" style="77" customWidth="1"/>
+    <col min="13316" max="13316" width="22.140625" style="77" bestFit="1" customWidth="1"/>
     <col min="13317" max="13317" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="13318" max="13568" width="11.453125" style="77"/>
-    <col min="13569" max="13569" width="52.81640625" style="77" bestFit="1" customWidth="1"/>
+    <col min="13318" max="13568" width="11.42578125" style="77"/>
+    <col min="13569" max="13569" width="52.85546875" style="77" bestFit="1" customWidth="1"/>
     <col min="13570" max="13570" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="13571" max="13571" width="13.26953125" style="77" customWidth="1"/>
-    <col min="13572" max="13572" width="22.08984375" style="77" bestFit="1" customWidth="1"/>
+    <col min="13571" max="13571" width="13.28515625" style="77" customWidth="1"/>
+    <col min="13572" max="13572" width="22.140625" style="77" bestFit="1" customWidth="1"/>
     <col min="13573" max="13573" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="13574" max="13824" width="11.453125" style="77"/>
-    <col min="13825" max="13825" width="52.81640625" style="77" bestFit="1" customWidth="1"/>
+    <col min="13574" max="13824" width="11.42578125" style="77"/>
+    <col min="13825" max="13825" width="52.85546875" style="77" bestFit="1" customWidth="1"/>
     <col min="13826" max="13826" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="13827" max="13827" width="13.26953125" style="77" customWidth="1"/>
-    <col min="13828" max="13828" width="22.08984375" style="77" bestFit="1" customWidth="1"/>
+    <col min="13827" max="13827" width="13.28515625" style="77" customWidth="1"/>
+    <col min="13828" max="13828" width="22.140625" style="77" bestFit="1" customWidth="1"/>
     <col min="13829" max="13829" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="13830" max="14080" width="11.453125" style="77"/>
-    <col min="14081" max="14081" width="52.81640625" style="77" bestFit="1" customWidth="1"/>
+    <col min="13830" max="14080" width="11.42578125" style="77"/>
+    <col min="14081" max="14081" width="52.85546875" style="77" bestFit="1" customWidth="1"/>
     <col min="14082" max="14082" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="14083" max="14083" width="13.26953125" style="77" customWidth="1"/>
-    <col min="14084" max="14084" width="22.08984375" style="77" bestFit="1" customWidth="1"/>
+    <col min="14083" max="14083" width="13.28515625" style="77" customWidth="1"/>
+    <col min="14084" max="14084" width="22.140625" style="77" bestFit="1" customWidth="1"/>
     <col min="14085" max="14085" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="14086" max="14336" width="11.453125" style="77"/>
-    <col min="14337" max="14337" width="52.81640625" style="77" bestFit="1" customWidth="1"/>
+    <col min="14086" max="14336" width="11.42578125" style="77"/>
+    <col min="14337" max="14337" width="52.85546875" style="77" bestFit="1" customWidth="1"/>
     <col min="14338" max="14338" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="14339" max="14339" width="13.26953125" style="77" customWidth="1"/>
-    <col min="14340" max="14340" width="22.08984375" style="77" bestFit="1" customWidth="1"/>
+    <col min="14339" max="14339" width="13.28515625" style="77" customWidth="1"/>
+    <col min="14340" max="14340" width="22.140625" style="77" bestFit="1" customWidth="1"/>
     <col min="14341" max="14341" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="14342" max="14592" width="11.453125" style="77"/>
-    <col min="14593" max="14593" width="52.81640625" style="77" bestFit="1" customWidth="1"/>
+    <col min="14342" max="14592" width="11.42578125" style="77"/>
+    <col min="14593" max="14593" width="52.85546875" style="77" bestFit="1" customWidth="1"/>
     <col min="14594" max="14594" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="14595" max="14595" width="13.26953125" style="77" customWidth="1"/>
-    <col min="14596" max="14596" width="22.08984375" style="77" bestFit="1" customWidth="1"/>
+    <col min="14595" max="14595" width="13.28515625" style="77" customWidth="1"/>
+    <col min="14596" max="14596" width="22.140625" style="77" bestFit="1" customWidth="1"/>
     <col min="14597" max="14597" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="14598" max="14848" width="11.453125" style="77"/>
-    <col min="14849" max="14849" width="52.81640625" style="77" bestFit="1" customWidth="1"/>
+    <col min="14598" max="14848" width="11.42578125" style="77"/>
+    <col min="14849" max="14849" width="52.85546875" style="77" bestFit="1" customWidth="1"/>
     <col min="14850" max="14850" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="14851" max="14851" width="13.26953125" style="77" customWidth="1"/>
-    <col min="14852" max="14852" width="22.08984375" style="77" bestFit="1" customWidth="1"/>
+    <col min="14851" max="14851" width="13.28515625" style="77" customWidth="1"/>
+    <col min="14852" max="14852" width="22.140625" style="77" bestFit="1" customWidth="1"/>
     <col min="14853" max="14853" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="14854" max="15104" width="11.453125" style="77"/>
-    <col min="15105" max="15105" width="52.81640625" style="77" bestFit="1" customWidth="1"/>
+    <col min="14854" max="15104" width="11.42578125" style="77"/>
+    <col min="15105" max="15105" width="52.85546875" style="77" bestFit="1" customWidth="1"/>
     <col min="15106" max="15106" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="15107" max="15107" width="13.26953125" style="77" customWidth="1"/>
-    <col min="15108" max="15108" width="22.08984375" style="77" bestFit="1" customWidth="1"/>
+    <col min="15107" max="15107" width="13.28515625" style="77" customWidth="1"/>
+    <col min="15108" max="15108" width="22.140625" style="77" bestFit="1" customWidth="1"/>
     <col min="15109" max="15109" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="15110" max="15360" width="11.453125" style="77"/>
-    <col min="15361" max="15361" width="52.81640625" style="77" bestFit="1" customWidth="1"/>
+    <col min="15110" max="15360" width="11.42578125" style="77"/>
+    <col min="15361" max="15361" width="52.85546875" style="77" bestFit="1" customWidth="1"/>
     <col min="15362" max="15362" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="15363" max="15363" width="13.26953125" style="77" customWidth="1"/>
-    <col min="15364" max="15364" width="22.08984375" style="77" bestFit="1" customWidth="1"/>
+    <col min="15363" max="15363" width="13.28515625" style="77" customWidth="1"/>
+    <col min="15364" max="15364" width="22.140625" style="77" bestFit="1" customWidth="1"/>
     <col min="15365" max="15365" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="15366" max="15616" width="11.453125" style="77"/>
-    <col min="15617" max="15617" width="52.81640625" style="77" bestFit="1" customWidth="1"/>
+    <col min="15366" max="15616" width="11.42578125" style="77"/>
+    <col min="15617" max="15617" width="52.85546875" style="77" bestFit="1" customWidth="1"/>
     <col min="15618" max="15618" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="15619" max="15619" width="13.26953125" style="77" customWidth="1"/>
-    <col min="15620" max="15620" width="22.08984375" style="77" bestFit="1" customWidth="1"/>
+    <col min="15619" max="15619" width="13.28515625" style="77" customWidth="1"/>
+    <col min="15620" max="15620" width="22.140625" style="77" bestFit="1" customWidth="1"/>
     <col min="15621" max="15621" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="15622" max="15872" width="11.453125" style="77"/>
-    <col min="15873" max="15873" width="52.81640625" style="77" bestFit="1" customWidth="1"/>
+    <col min="15622" max="15872" width="11.42578125" style="77"/>
+    <col min="15873" max="15873" width="52.85546875" style="77" bestFit="1" customWidth="1"/>
     <col min="15874" max="15874" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="15875" max="15875" width="13.26953125" style="77" customWidth="1"/>
-    <col min="15876" max="15876" width="22.08984375" style="77" bestFit="1" customWidth="1"/>
+    <col min="15875" max="15875" width="13.28515625" style="77" customWidth="1"/>
+    <col min="15876" max="15876" width="22.140625" style="77" bestFit="1" customWidth="1"/>
     <col min="15877" max="15877" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="15878" max="16128" width="11.453125" style="77"/>
-    <col min="16129" max="16129" width="52.81640625" style="77" bestFit="1" customWidth="1"/>
+    <col min="15878" max="16128" width="11.42578125" style="77"/>
+    <col min="16129" max="16129" width="52.85546875" style="77" bestFit="1" customWidth="1"/>
     <col min="16130" max="16130" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="16131" max="16131" width="13.26953125" style="77" customWidth="1"/>
-    <col min="16132" max="16132" width="22.08984375" style="77" bestFit="1" customWidth="1"/>
+    <col min="16131" max="16131" width="13.28515625" style="77" customWidth="1"/>
+    <col min="16132" max="16132" width="22.140625" style="77" bestFit="1" customWidth="1"/>
     <col min="16133" max="16133" width="0" style="77" hidden="1" customWidth="1"/>
-    <col min="16134" max="16384" width="11.453125" style="77"/>
+    <col min="16134" max="16384" width="11.42578125" style="77"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="76"/>
       <c r="K1" s="78"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="76"/>
       <c r="K2" s="78"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="79" t="s">
         <v>173</v>
       </c>
@@ -5227,23 +5227,23 @@
       <c r="J5" s="78"/>
       <c r="K5" s="78"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="100" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="108" t="s">
         <v>194</v>
       </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="101" t="s">
+      <c r="B7" s="108"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="109" t="s">
         <v>195</v>
       </c>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
+      <c r="E7" s="109"/>
+      <c r="F7" s="109"/>
       <c r="G7" s="81"/>
       <c r="H7" s="81"/>
       <c r="J7" s="81"/>
       <c r="K7" s="81"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" s="76"/>
       <c r="C8" s="76"/>
       <c r="G8" s="81"/>
@@ -5251,7 +5251,7 @@
       <c r="J8" s="81"/>
       <c r="K8" s="81"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="76" t="s">
         <v>196</v>
       </c>
@@ -5277,7 +5277,7 @@
       <c r="J9" s="81"/>
       <c r="K9" s="81"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="76"/>
       <c r="B10" s="76"/>
       <c r="C10" s="76"/>
@@ -5286,7 +5286,7 @@
       <c r="J10" s="81"/>
       <c r="K10" s="81"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="76" t="s">
         <v>198</v>
       </c>
@@ -5312,7 +5312,7 @@
       <c r="J11" s="81"/>
       <c r="K11" s="81"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="76" t="s">
         <v>199</v>
       </c>
@@ -5329,7 +5329,7 @@
       <c r="J12" s="81"/>
       <c r="K12" s="81"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="76" t="s">
         <v>200</v>
       </c>
@@ -5346,7 +5346,7 @@
       <c r="J13" s="81"/>
       <c r="K13" s="81"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="76" t="s">
         <v>201</v>
       </c>
@@ -5363,7 +5363,7 @@
       <c r="J14" s="81"/>
       <c r="K14" s="81"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="76" t="s">
         <v>202</v>
       </c>
@@ -5380,7 +5380,7 @@
       <c r="J15" s="81"/>
       <c r="K15" s="81"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="76"/>
       <c r="B16" s="76"/>
       <c r="C16" s="76"/>
@@ -5389,7 +5389,7 @@
       <c r="J16" s="81"/>
       <c r="K16" s="81"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="76" t="s">
         <v>203</v>
       </c>
@@ -5415,7 +5415,7 @@
       <c r="J17" s="81"/>
       <c r="K17" s="81"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="76" t="s">
         <v>205</v>
       </c>
@@ -5432,7 +5432,7 @@
       <c r="J18" s="81"/>
       <c r="K18" s="81"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="76" t="s">
         <v>205</v>
       </c>
@@ -5449,7 +5449,7 @@
       <c r="J19" s="81"/>
       <c r="K19" s="81"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="76" t="s">
         <v>205</v>
       </c>
@@ -5466,7 +5466,7 @@
       <c r="J20" s="81"/>
       <c r="K20" s="81"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="76" t="s">
         <v>205</v>
       </c>
@@ -5483,7 +5483,7 @@
       <c r="J21" s="81"/>
       <c r="K21" s="81"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="76" t="s">
         <v>205</v>
       </c>
@@ -5500,7 +5500,7 @@
       <c r="J22" s="81"/>
       <c r="K22" s="81"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="76" t="s">
         <v>205</v>
       </c>
@@ -5517,7 +5517,7 @@
       <c r="J23" s="81"/>
       <c r="K23" s="81"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="76" t="s">
         <v>206</v>
       </c>
@@ -5538,7 +5538,7 @@
       <c r="J24" s="81"/>
       <c r="K24" s="81"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="76" t="s">
         <v>352</v>
       </c>
@@ -5558,7 +5558,7 @@
       <c r="J25" s="81"/>
       <c r="K25" s="81"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="76" t="s">
         <v>353</v>
       </c>
@@ -5579,7 +5579,7 @@
       <c r="J26" s="81"/>
       <c r="K26" s="81"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="76" t="s">
         <v>207</v>
       </c>
@@ -5600,7 +5600,7 @@
       <c r="J27" s="81"/>
       <c r="K27" s="81"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="76"/>
       <c r="B28" s="76"/>
       <c r="C28" s="76"/>
@@ -5609,7 +5609,7 @@
       <c r="J28" s="81"/>
       <c r="K28" s="81"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="76" t="s">
         <v>208</v>
       </c>
@@ -5635,7 +5635,7 @@
       <c r="J29" s="81"/>
       <c r="K29" s="81"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="76" t="s">
         <v>210</v>
       </c>
@@ -5652,7 +5652,7 @@
       <c r="J30" s="81"/>
       <c r="K30" s="81"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="76" t="s">
         <v>211</v>
       </c>
@@ -5669,7 +5669,7 @@
       <c r="J31" s="81"/>
       <c r="K31" s="81"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="76" t="s">
         <v>212</v>
       </c>
@@ -5686,7 +5686,7 @@
       <c r="J32" s="81"/>
       <c r="K32" s="81"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="76" t="s">
         <v>213</v>
       </c>
@@ -5703,7 +5703,7 @@
       <c r="J33" s="81"/>
       <c r="K33" s="81"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="76" t="s">
         <v>214</v>
       </c>
@@ -5720,7 +5720,7 @@
       <c r="J34" s="81"/>
       <c r="K34" s="81"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="76" t="s">
         <v>215</v>
       </c>
@@ -5746,7 +5746,7 @@
       <c r="J35" s="81"/>
       <c r="K35" s="81"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="76" t="s">
         <v>216</v>
       </c>
@@ -5763,7 +5763,7 @@
       <c r="J36" s="81"/>
       <c r="K36" s="81"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="76" t="s">
         <v>217</v>
       </c>
@@ -5780,7 +5780,7 @@
       <c r="J37" s="81"/>
       <c r="K37" s="81"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="76" t="s">
         <v>218</v>
       </c>
@@ -5797,7 +5797,7 @@
       <c r="J38" s="81"/>
       <c r="K38" s="81"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="76" t="s">
         <v>219</v>
       </c>
@@ -5814,7 +5814,7 @@
       <c r="J39" s="81"/>
       <c r="K39" s="81"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="76" t="s">
         <v>220</v>
       </c>
@@ -5831,7 +5831,7 @@
       <c r="J40" s="81"/>
       <c r="K40" s="81"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="76" t="s">
         <v>221</v>
       </c>
@@ -5848,7 +5848,7 @@
       <c r="J41" s="81"/>
       <c r="K41" s="81"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="76" t="s">
         <v>222</v>
       </c>
@@ -5865,7 +5865,7 @@
       <c r="J42" s="81"/>
       <c r="K42" s="81"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="76" t="s">
         <v>223</v>
       </c>
@@ -5885,7 +5885,7 @@
       <c r="J43" s="81"/>
       <c r="K43" s="81"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="76" t="s">
         <v>224</v>
       </c>
@@ -5906,7 +5906,7 @@
       <c r="J44" s="81"/>
       <c r="K44" s="81"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="76" t="s">
         <v>225</v>
       </c>
@@ -5927,7 +5927,7 @@
       <c r="J45" s="81"/>
       <c r="K45" s="81"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="76" t="s">
         <v>226</v>
       </c>
@@ -5948,7 +5948,7 @@
       <c r="J46" s="81"/>
       <c r="K46" s="81"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="76" t="s">
         <v>227</v>
       </c>
@@ -5969,7 +5969,7 @@
       <c r="J47" s="81"/>
       <c r="K47" s="81"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="76" t="s">
         <v>228</v>
       </c>
@@ -5990,7 +5990,7 @@
       <c r="J48" s="81"/>
       <c r="K48" s="81"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="76" t="s">
         <v>229</v>
       </c>
@@ -6011,7 +6011,7 @@
       <c r="J49" s="81"/>
       <c r="K49" s="81"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="76" t="s">
         <v>230</v>
       </c>
@@ -6032,7 +6032,7 @@
       <c r="J50" s="81"/>
       <c r="K50" s="81"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="76" t="s">
         <v>231</v>
       </c>
@@ -6053,7 +6053,7 @@
       <c r="J51" s="81"/>
       <c r="K51" s="81"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="76" t="s">
         <v>232</v>
       </c>
@@ -6074,7 +6074,7 @@
       <c r="J52" s="81"/>
       <c r="K52" s="81"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="76" t="s">
         <v>233</v>
       </c>
@@ -6095,7 +6095,7 @@
       <c r="J53" s="81"/>
       <c r="K53" s="81"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="76" t="s">
         <v>234</v>
       </c>
@@ -6116,7 +6116,7 @@
       <c r="J54" s="81"/>
       <c r="K54" s="81"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="76" t="s">
         <v>235</v>
       </c>
@@ -6137,7 +6137,7 @@
       <c r="J55" s="81"/>
       <c r="K55" s="81"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="76" t="s">
         <v>236</v>
       </c>
@@ -6158,7 +6158,7 @@
       <c r="J56" s="81"/>
       <c r="K56" s="81"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="76" t="s">
         <v>237</v>
       </c>
@@ -6179,7 +6179,7 @@
       <c r="J57" s="81"/>
       <c r="K57" s="81"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="76" t="s">
         <v>238</v>
       </c>
@@ -6200,7 +6200,7 @@
       <c r="J58" s="81"/>
       <c r="K58" s="81"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="76" t="s">
         <v>239</v>
       </c>
@@ -6221,7 +6221,7 @@
       <c r="J59" s="81"/>
       <c r="K59" s="81"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="76" t="s">
         <v>240</v>
       </c>
@@ -6242,7 +6242,7 @@
       <c r="J60" s="81"/>
       <c r="K60" s="81"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="76" t="s">
         <v>241</v>
       </c>
@@ -6263,7 +6263,7 @@
       <c r="J61" s="81"/>
       <c r="K61" s="81"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="76" t="s">
         <v>242</v>
       </c>
@@ -6284,7 +6284,7 @@
       <c r="J62" s="81"/>
       <c r="K62" s="81"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="76" t="s">
         <v>243</v>
       </c>
@@ -6305,7 +6305,7 @@
       <c r="J63" s="81"/>
       <c r="K63" s="81"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="76" t="s">
         <v>244</v>
       </c>
@@ -6326,7 +6326,7 @@
       <c r="J64" s="81"/>
       <c r="K64" s="81"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="76" t="s">
         <v>245</v>
       </c>
@@ -6347,7 +6347,7 @@
       <c r="J65" s="81"/>
       <c r="K65" s="81"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="76" t="s">
         <v>246</v>
       </c>
@@ -6368,7 +6368,7 @@
       <c r="J66" s="81"/>
       <c r="K66" s="81"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="76" t="s">
         <v>247</v>
       </c>
@@ -6389,7 +6389,7 @@
       <c r="J67" s="81"/>
       <c r="K67" s="81"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="76" t="s">
         <v>248</v>
       </c>
@@ -6410,7 +6410,7 @@
       <c r="J68" s="81"/>
       <c r="K68" s="81"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="76" t="s">
         <v>249</v>
       </c>
@@ -6431,7 +6431,7 @@
       <c r="J69" s="81"/>
       <c r="K69" s="81"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="76" t="s">
         <v>250</v>
       </c>
@@ -6452,7 +6452,7 @@
       <c r="J70" s="81"/>
       <c r="K70" s="81"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="76" t="s">
         <v>251</v>
       </c>
@@ -6473,7 +6473,7 @@
       <c r="J71" s="81"/>
       <c r="K71" s="81"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="76" t="s">
         <v>252</v>
       </c>
@@ -6493,7 +6493,7 @@
       <c r="J72" s="81"/>
       <c r="K72" s="81"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="76" t="s">
         <v>253</v>
       </c>
@@ -6514,7 +6514,7 @@
       <c r="J73" s="81"/>
       <c r="K73" s="81"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="76" t="s">
         <v>254</v>
       </c>
@@ -6535,7 +6535,7 @@
       <c r="J74" s="81"/>
       <c r="K74" s="81"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="76" t="s">
         <v>255</v>
       </c>
@@ -6556,7 +6556,7 @@
       <c r="J75" s="81"/>
       <c r="K75" s="81"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="76" t="s">
         <v>256</v>
       </c>
@@ -6577,7 +6577,7 @@
       <c r="J76" s="81"/>
       <c r="K76" s="81"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="76" t="s">
         <v>257</v>
       </c>
@@ -6598,7 +6598,7 @@
       <c r="J77" s="81"/>
       <c r="K77" s="81"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="76"/>
       <c r="B78" s="76"/>
       <c r="C78" s="76"/>
@@ -6607,7 +6607,7 @@
       <c r="J78" s="81"/>
       <c r="K78" s="81"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="76" t="s">
         <v>135</v>
       </c>
@@ -6634,7 +6634,7 @@
       <c r="J79" s="81"/>
       <c r="K79" s="81"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="76" t="s">
         <v>258</v>
       </c>
@@ -6651,7 +6651,7 @@
       <c r="J80" s="81"/>
       <c r="K80" s="81"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="76" t="s">
         <v>259</v>
       </c>
@@ -6668,7 +6668,7 @@
       <c r="J81" s="81"/>
       <c r="K81" s="81"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="76" t="s">
         <v>260</v>
       </c>
@@ -6685,7 +6685,7 @@
       <c r="J82" s="81"/>
       <c r="K82" s="81"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="76" t="s">
         <v>261</v>
       </c>
@@ -6702,7 +6702,7 @@
       <c r="J83" s="81"/>
       <c r="K83" s="81"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="76" t="s">
         <v>262</v>
       </c>
@@ -6719,7 +6719,7 @@
       <c r="J84" s="81"/>
       <c r="K84" s="81"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="76" t="s">
         <v>354</v>
       </c>
@@ -6739,7 +6739,7 @@
       <c r="J85" s="81"/>
       <c r="K85" s="81"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="76" t="s">
         <v>263</v>
       </c>
@@ -6760,7 +6760,7 @@
       <c r="J86" s="81"/>
       <c r="K86" s="81"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="76" t="s">
         <v>264</v>
       </c>
@@ -6781,7 +6781,7 @@
       <c r="J87" s="81"/>
       <c r="K87" s="81"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="76" t="s">
         <v>265</v>
       </c>
@@ -6802,7 +6802,7 @@
       <c r="J88" s="81"/>
       <c r="K88" s="81"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="76" t="s">
         <v>266</v>
       </c>
@@ -6823,7 +6823,7 @@
       <c r="J89" s="81"/>
       <c r="K89" s="81"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="76" t="s">
         <v>267</v>
       </c>
@@ -6844,7 +6844,7 @@
       <c r="J90" s="81"/>
       <c r="K90" s="81"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="76" t="s">
         <v>268</v>
       </c>
@@ -6865,7 +6865,7 @@
       <c r="J91" s="81"/>
       <c r="K91" s="81"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="76" t="s">
         <v>269</v>
       </c>
@@ -6886,7 +6886,7 @@
       <c r="J92" s="81"/>
       <c r="K92" s="81"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="76" t="s">
         <v>270</v>
       </c>
@@ -6907,7 +6907,7 @@
       <c r="J93" s="81"/>
       <c r="K93" s="81"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="76"/>
       <c r="B94" s="76"/>
       <c r="C94" s="76"/>
@@ -6916,7 +6916,7 @@
       <c r="J94" s="81"/>
       <c r="K94" s="81"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="76" t="s">
         <v>271</v>
       </c>
@@ -6936,7 +6936,7 @@
       <c r="J95" s="81"/>
       <c r="K95" s="81"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="76"/>
       <c r="B96" s="76"/>
       <c r="C96" s="76"/>
@@ -6945,7 +6945,7 @@
       <c r="J96" s="81"/>
       <c r="K96" s="81"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="76" t="s">
         <v>272</v>
       </c>
@@ -6971,7 +6971,7 @@
       <c r="J97" s="81"/>
       <c r="K97" s="81"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="76" t="s">
         <v>273</v>
       </c>
@@ -6988,7 +6988,7 @@
       <c r="J98" s="81"/>
       <c r="K98" s="81"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="76" t="s">
         <v>274</v>
       </c>
@@ -7005,7 +7005,7 @@
       <c r="J99" s="81"/>
       <c r="K99" s="81"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="76" t="s">
         <v>275</v>
       </c>
@@ -7022,7 +7022,7 @@
       <c r="J100" s="81"/>
       <c r="K100" s="81"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="76" t="s">
         <v>276</v>
       </c>
@@ -7039,7 +7039,7 @@
       <c r="J101" s="81"/>
       <c r="K101" s="81"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="76" t="s">
         <v>277</v>
       </c>
@@ -7056,7 +7056,7 @@
       <c r="J102" s="81"/>
       <c r="K102" s="81"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="76" t="s">
         <v>278</v>
       </c>
@@ -7077,7 +7077,7 @@
       <c r="J103" s="81"/>
       <c r="K103" s="81"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="76" t="s">
         <v>279</v>
       </c>
@@ -7098,7 +7098,7 @@
       <c r="J104" s="81"/>
       <c r="K104" s="81"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="76" t="s">
         <v>280</v>
       </c>
@@ -7118,7 +7118,7 @@
       <c r="J105" s="81"/>
       <c r="K105" s="81"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="76" t="s">
         <v>281</v>
       </c>
@@ -7139,7 +7139,7 @@
       <c r="J106" s="81"/>
       <c r="K106" s="81"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="76" t="s">
         <v>282</v>
       </c>
@@ -7160,7 +7160,7 @@
       <c r="J107" s="81"/>
       <c r="K107" s="81"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="76" t="s">
         <v>283</v>
       </c>
@@ -7181,7 +7181,7 @@
       <c r="J108" s="81"/>
       <c r="K108" s="81"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="76"/>
       <c r="B109" s="76"/>
       <c r="C109" s="76"/>
@@ -7190,7 +7190,7 @@
       <c r="J109" s="81"/>
       <c r="K109" s="81"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="76" t="s">
         <v>284</v>
       </c>
@@ -7216,7 +7216,7 @@
       <c r="J110" s="81"/>
       <c r="K110" s="81"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="76" t="s">
         <v>286</v>
       </c>
@@ -7225,7 +7225,7 @@
         <v>302</v>
       </c>
       <c r="C111" s="76">
-        <f t="shared" ref="C111:E175" si="29">400000+B111</f>
+        <f t="shared" ref="C111:C175" si="29">400000+B111</f>
         <v>400302</v>
       </c>
       <c r="G111" s="81"/>
@@ -7233,7 +7233,7 @@
       <c r="J111" s="81"/>
       <c r="K111" s="81"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="76" t="s">
         <v>287</v>
       </c>
@@ -7250,7 +7250,7 @@
       <c r="J112" s="81"/>
       <c r="K112" s="81"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="76" t="s">
         <v>288</v>
       </c>
@@ -7267,7 +7267,7 @@
       <c r="J113" s="81"/>
       <c r="K113" s="81"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="76" t="s">
         <v>289</v>
       </c>
@@ -7284,7 +7284,7 @@
       <c r="J114" s="81"/>
       <c r="K114" s="81"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="76" t="s">
         <v>290</v>
       </c>
@@ -7301,7 +7301,7 @@
       <c r="J115" s="81"/>
       <c r="K115" s="81"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="82" t="s">
         <v>291</v>
       </c>
@@ -7322,7 +7322,7 @@
       <c r="J116" s="81"/>
       <c r="K116" s="81"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="82"/>
       <c r="B117" s="76"/>
       <c r="C117" s="76"/>
@@ -7331,7 +7331,7 @@
       <c r="J117" s="81"/>
       <c r="K117" s="81"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="76" t="s">
         <v>292</v>
       </c>
@@ -7356,7 +7356,7 @@
       <c r="J118" s="81"/>
       <c r="K118" s="81"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="76" t="s">
         <v>293</v>
       </c>
@@ -7373,12 +7373,12 @@
       <c r="J119" s="81"/>
       <c r="K119" s="81"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="76" t="s">
         <v>294</v>
       </c>
       <c r="B120" s="76">
-        <f t="shared" ref="B120:B176" si="31">B119+10</f>
+        <f t="shared" ref="B120:B175" si="31">B119+10</f>
         <v>420</v>
       </c>
       <c r="C120" s="76">
@@ -7390,7 +7390,7 @@
       <c r="J120" s="81"/>
       <c r="K120" s="81"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="76" t="s">
         <v>295</v>
       </c>
@@ -7407,7 +7407,7 @@
       <c r="J121" s="81"/>
       <c r="K121" s="81"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="76" t="s">
         <v>296</v>
       </c>
@@ -7424,7 +7424,7 @@
       <c r="J122" s="81"/>
       <c r="K122" s="81"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="76" t="s">
         <v>297</v>
       </c>
@@ -7441,7 +7441,7 @@
       <c r="J123" s="81"/>
       <c r="K123" s="81"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="76" t="s">
         <v>298</v>
       </c>
@@ -7458,7 +7458,7 @@
       <c r="J124" s="81"/>
       <c r="K124" s="81"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="76" t="s">
         <v>299</v>
       </c>
@@ -7475,7 +7475,7 @@
       <c r="J125" s="81"/>
       <c r="K125" s="81"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="76" t="s">
         <v>300</v>
       </c>
@@ -7492,7 +7492,7 @@
       <c r="J126" s="81"/>
       <c r="K126" s="81"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="76" t="s">
         <v>301</v>
       </c>
@@ -7509,7 +7509,7 @@
       <c r="J127" s="81"/>
       <c r="K127" s="81"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="76" t="s">
         <v>302</v>
       </c>
@@ -7526,7 +7526,7 @@
       <c r="J128" s="81"/>
       <c r="K128" s="81"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="76" t="s">
         <v>303</v>
       </c>
@@ -7543,7 +7543,7 @@
       <c r="J129" s="81"/>
       <c r="K129" s="81"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" s="76" t="s">
         <v>351</v>
       </c>
@@ -7560,7 +7560,7 @@
       <c r="J130" s="81"/>
       <c r="K130" s="81"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" s="76" t="s">
         <v>304</v>
       </c>
@@ -7577,7 +7577,7 @@
       <c r="J131" s="81"/>
       <c r="K131" s="81"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" s="76" t="s">
         <v>305</v>
       </c>
@@ -7598,7 +7598,7 @@
       <c r="J132" s="81"/>
       <c r="K132" s="81"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" s="76" t="s">
         <v>306</v>
       </c>
@@ -7619,7 +7619,7 @@
       <c r="J133" s="81"/>
       <c r="K133" s="81"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" s="76" t="s">
         <v>307</v>
       </c>
@@ -7640,7 +7640,7 @@
       <c r="J134" s="81"/>
       <c r="K134" s="81"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" s="76" t="s">
         <v>308</v>
       </c>
@@ -7661,7 +7661,7 @@
       <c r="J135" s="81"/>
       <c r="K135" s="81"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" s="76" t="s">
         <v>309</v>
       </c>
@@ -7682,7 +7682,7 @@
       <c r="J136" s="81"/>
       <c r="K136" s="81"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" s="76" t="s">
         <v>310</v>
       </c>
@@ -7703,7 +7703,7 @@
       <c r="J137" s="81"/>
       <c r="K137" s="81"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" s="76" t="s">
         <v>311</v>
       </c>
@@ -7724,7 +7724,7 @@
       <c r="J138" s="81"/>
       <c r="K138" s="81"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" s="76" t="s">
         <v>312</v>
       </c>
@@ -7745,7 +7745,7 @@
       <c r="J139" s="81"/>
       <c r="K139" s="81"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" s="76" t="s">
         <v>313</v>
       </c>
@@ -7766,7 +7766,7 @@
       <c r="J140" s="81"/>
       <c r="K140" s="81"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" s="76" t="s">
         <v>314</v>
       </c>
@@ -7787,7 +7787,7 @@
       <c r="J141" s="81"/>
       <c r="K141" s="81"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" s="76" t="s">
         <v>315</v>
       </c>
@@ -7808,7 +7808,7 @@
       <c r="J142" s="81"/>
       <c r="K142" s="81"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" s="76" t="s">
         <v>349</v>
       </c>
@@ -7829,7 +7829,7 @@
       <c r="J143" s="81"/>
       <c r="K143" s="81"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="76" t="s">
         <v>350</v>
       </c>
@@ -7847,7 +7847,7 @@
       <c r="J144" s="81"/>
       <c r="K144" s="81"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="76" t="s">
         <v>316</v>
       </c>
@@ -7868,7 +7868,7 @@
       <c r="J145" s="81"/>
       <c r="K145" s="81"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="76" t="s">
         <v>356</v>
       </c>
@@ -7889,7 +7889,7 @@
       <c r="J146" s="81"/>
       <c r="K146" s="81"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="76" t="s">
         <v>317</v>
       </c>
@@ -7910,7 +7910,7 @@
       <c r="J147" s="81"/>
       <c r="K147" s="81"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="76" t="s">
         <v>318</v>
       </c>
@@ -7931,7 +7931,7 @@
       <c r="J148" s="81"/>
       <c r="K148" s="81"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="76" t="s">
         <v>319</v>
       </c>
@@ -7952,7 +7952,7 @@
       <c r="J149" s="81"/>
       <c r="K149" s="81"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="76" t="s">
         <v>320</v>
       </c>
@@ -7973,7 +7973,7 @@
       <c r="J150" s="81"/>
       <c r="K150" s="81"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" s="76" t="s">
         <v>321</v>
       </c>
@@ -7994,7 +7994,7 @@
       <c r="J151" s="81"/>
       <c r="K151" s="81"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" s="76" t="s">
         <v>322</v>
       </c>
@@ -8015,7 +8015,7 @@
       <c r="J152" s="81"/>
       <c r="K152" s="81"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" s="76" t="s">
         <v>323</v>
       </c>
@@ -8036,7 +8036,7 @@
       <c r="J153" s="81"/>
       <c r="K153" s="81"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" s="76" t="s">
         <v>324</v>
       </c>
@@ -8057,7 +8057,7 @@
       <c r="J154" s="81"/>
       <c r="K154" s="81"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" s="76" t="s">
         <v>325</v>
       </c>
@@ -8078,7 +8078,7 @@
       <c r="J155" s="81"/>
       <c r="K155" s="81"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" s="76" t="s">
         <v>326</v>
       </c>
@@ -8099,7 +8099,7 @@
       <c r="J156" s="81"/>
       <c r="K156" s="81"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" s="76" t="s">
         <v>327</v>
       </c>
@@ -8120,7 +8120,7 @@
       <c r="J157" s="81"/>
       <c r="K157" s="81"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" s="76" t="s">
         <v>328</v>
       </c>
@@ -8141,7 +8141,7 @@
       <c r="J158" s="81"/>
       <c r="K158" s="81"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" s="76" t="s">
         <v>329</v>
       </c>
@@ -8162,7 +8162,7 @@
       <c r="J159" s="81"/>
       <c r="K159" s="81"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" s="76" t="s">
         <v>330</v>
       </c>
@@ -8183,7 +8183,7 @@
       <c r="J160" s="81"/>
       <c r="K160" s="81"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" s="76" t="s">
         <v>331</v>
       </c>
@@ -8204,7 +8204,7 @@
       <c r="J161" s="81"/>
       <c r="K161" s="81"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" s="76" t="s">
         <v>332</v>
       </c>
@@ -8225,7 +8225,7 @@
       <c r="J162" s="81"/>
       <c r="K162" s="81"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" s="76" t="s">
         <v>333</v>
       </c>
@@ -8246,7 +8246,7 @@
       <c r="J163" s="81"/>
       <c r="K163" s="81"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" s="76" t="s">
         <v>334</v>
       </c>
@@ -8267,7 +8267,7 @@
       <c r="J164" s="81"/>
       <c r="K164" s="81"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165" s="76" t="s">
         <v>335</v>
       </c>
@@ -8288,7 +8288,7 @@
       <c r="J165" s="81"/>
       <c r="K165" s="81"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" s="76" t="s">
         <v>336</v>
       </c>
@@ -8309,7 +8309,7 @@
       <c r="J166" s="81"/>
       <c r="K166" s="81"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" s="76" t="s">
         <v>337</v>
       </c>
@@ -8330,7 +8330,7 @@
       <c r="J167" s="81"/>
       <c r="K167" s="81"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" s="76" t="s">
         <v>338</v>
       </c>
@@ -8351,7 +8351,7 @@
       <c r="J168" s="81"/>
       <c r="K168" s="81"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" s="76" t="s">
         <v>339</v>
       </c>
@@ -8372,7 +8372,7 @@
       <c r="J169" s="81"/>
       <c r="K169" s="81"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" s="76" t="s">
         <v>340</v>
       </c>
@@ -8393,7 +8393,7 @@
       <c r="J170" s="81"/>
       <c r="K170" s="81"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" s="76" t="s">
         <v>341</v>
       </c>
@@ -8419,7 +8419,7 @@
       <c r="J171" s="81"/>
       <c r="K171" s="81"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" s="76" t="s">
         <v>342</v>
       </c>
@@ -8436,7 +8436,7 @@
       <c r="J172" s="81"/>
       <c r="K172" s="81"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" s="76" t="s">
         <v>343</v>
       </c>
@@ -8453,7 +8453,7 @@
       <c r="J173" s="81"/>
       <c r="K173" s="81"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" s="76" t="s">
         <v>344</v>
       </c>
@@ -8470,7 +8470,7 @@
       <c r="J174" s="81"/>
       <c r="K174" s="81"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" s="76" t="s">
         <v>345</v>
       </c>
@@ -8487,7 +8487,7 @@
       <c r="J175" s="81"/>
       <c r="K175" s="81"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" s="76" t="s">
         <v>346</v>
       </c>
@@ -8508,7 +8508,7 @@
       <c r="J176" s="81"/>
       <c r="K176" s="81"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" s="83"/>
       <c r="B177" s="76"/>
       <c r="C177" s="76"/>
@@ -8517,7 +8517,7 @@
       <c r="J177" s="81"/>
       <c r="K177" s="81"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D178" s="78"/>
       <c r="E178" s="78"/>
       <c r="G178" s="81"/>
@@ -8525,10 +8525,10 @@
       <c r="J178" s="81"/>
       <c r="K178" s="81"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179" s="84"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="F180" s="85"/>
       <c r="K180" s="86"/>
     </row>
@@ -8545,458 +8545,458 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A38" sqref="A38"/>
+      <selection pane="bottomRight" activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="42.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12" style="105" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" style="1"/>
-    <col min="5" max="6" width="9.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="42.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12" style="99" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="1"/>
+    <col min="5" max="6" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B1" s="106" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B1" s="110" t="s">
         <v>379</v>
       </c>
-      <c r="C1" s="106"/>
-      <c r="E1" s="106" t="s">
+      <c r="C1" s="110"/>
+      <c r="E1" s="110" t="s">
         <v>381</v>
       </c>
-      <c r="F1" s="106"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="104" t="s">
+      <c r="F1" s="110"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B2" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="104" t="s">
+      <c r="C2" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="104" t="s">
+      <c r="E2" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="104" t="s">
+      <c r="F2" s="98" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="102" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="96" t="s">
         <v>272</v>
       </c>
-      <c r="C3" s="105">
+      <c r="C3" s="99">
         <v>500000</v>
       </c>
-      <c r="E3" s="107">
+      <c r="E3" s="100">
         <f>C3</f>
         <v>500000</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="102" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="96" t="s">
         <v>273</v>
       </c>
-      <c r="C4" s="105">
+      <c r="C4" s="99">
         <f>C3+100000</f>
         <v>600000</v>
       </c>
-      <c r="E4" s="107">
+      <c r="E4" s="100">
         <f t="shared" ref="E4:E8" si="0">C4</f>
         <v>600000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="102" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="96" t="s">
         <v>274</v>
       </c>
-      <c r="C5" s="105">
+      <c r="C5" s="99">
         <f t="shared" ref="C5:C8" si="1">C4+100000</f>
         <v>700000</v>
       </c>
-      <c r="E5" s="107">
+      <c r="E5" s="100">
         <f t="shared" si="0"/>
         <v>700000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="102" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="96" t="s">
         <v>275</v>
       </c>
-      <c r="C6" s="105">
+      <c r="C6" s="99">
         <f t="shared" si="1"/>
         <v>800000</v>
       </c>
-      <c r="E6" s="107">
+      <c r="E6" s="100">
         <f t="shared" si="0"/>
         <v>800000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="102" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="96" t="s">
         <v>276</v>
       </c>
-      <c r="C7" s="105">
+      <c r="C7" s="99">
         <f t="shared" si="1"/>
         <v>900000</v>
       </c>
-      <c r="E7" s="107">
+      <c r="E7" s="100">
         <f t="shared" si="0"/>
         <v>900000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="102" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="96" t="s">
         <v>277</v>
       </c>
-      <c r="C8" s="105">
+      <c r="C8" s="99">
         <f t="shared" si="1"/>
         <v>1000000</v>
       </c>
-      <c r="E8" s="107">
+      <c r="E8" s="100">
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="102" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="96" t="s">
         <v>284</v>
       </c>
-      <c r="B10" s="105">
+      <c r="B10" s="99">
         <v>300000</v>
       </c>
-      <c r="F10" s="107">
+      <c r="F10" s="100">
         <f>B10</f>
         <v>300000</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="102" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="96" t="s">
         <v>286</v>
       </c>
-      <c r="B11" s="105">
+      <c r="B11" s="99">
         <f>B10+10000</f>
         <v>310000</v>
       </c>
-      <c r="F11" s="107">
+      <c r="F11" s="100">
         <f t="shared" ref="F11:F16" si="2">B11</f>
         <v>310000</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="102" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="96" t="s">
         <v>287</v>
       </c>
-      <c r="B12" s="105">
+      <c r="B12" s="99">
         <f t="shared" ref="B12:B16" si="3">B11+10000</f>
         <v>320000</v>
       </c>
-      <c r="F12" s="107">
+      <c r="F12" s="100">
         <f t="shared" si="2"/>
         <v>320000</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="102" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="96" t="s">
         <v>288</v>
       </c>
-      <c r="B13" s="105">
+      <c r="B13" s="99">
         <f t="shared" si="3"/>
         <v>330000</v>
       </c>
-      <c r="F13" s="107">
+      <c r="F13" s="100">
         <f t="shared" si="2"/>
         <v>330000</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="102" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="96" t="s">
         <v>289</v>
       </c>
-      <c r="B14" s="105">
+      <c r="B14" s="99">
         <f t="shared" si="3"/>
         <v>340000</v>
       </c>
-      <c r="F14" s="107">
+      <c r="F14" s="100">
         <f t="shared" si="2"/>
         <v>340000</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="102" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="96" t="s">
         <v>290</v>
       </c>
-      <c r="B15" s="105">
+      <c r="B15" s="99">
         <f t="shared" si="3"/>
         <v>350000</v>
       </c>
-      <c r="F15" s="107">
+      <c r="F15" s="100">
         <f t="shared" si="2"/>
         <v>350000</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="103" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="97" t="s">
         <v>291</v>
       </c>
-      <c r="B16" s="105">
+      <c r="B16" s="99">
         <f t="shared" si="3"/>
         <v>360000</v>
       </c>
-      <c r="F16" s="107">
+      <c r="F16" s="100">
         <f t="shared" si="2"/>
         <v>360000</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="103"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="102" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="97"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="96" t="s">
         <v>292</v>
       </c>
-      <c r="B18" s="105">
+      <c r="B18" s="99">
         <v>50000</v>
       </c>
-      <c r="F18" s="107">
+      <c r="F18" s="100">
         <f t="shared" ref="F18:F34" si="4">B18</f>
         <v>50000</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="102" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="96" t="s">
         <v>293</v>
       </c>
-      <c r="B19" s="105">
+      <c r="B19" s="99">
         <v>10000</v>
       </c>
-      <c r="F19" s="107">
+      <c r="F19" s="100">
         <f t="shared" si="4"/>
         <v>10000</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="102" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="96" t="s">
         <v>294</v>
       </c>
-      <c r="B20" s="105">
+      <c r="B20" s="99">
         <f>B19+500</f>
         <v>10500</v>
       </c>
-      <c r="F20" s="107">
+      <c r="F20" s="100">
         <f t="shared" si="4"/>
         <v>10500</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="102" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="96" t="s">
         <v>295</v>
       </c>
-      <c r="B21" s="105">
+      <c r="B21" s="99">
         <f t="shared" ref="B21:B34" si="5">B20+500</f>
         <v>11000</v>
       </c>
-      <c r="F21" s="107">
+      <c r="F21" s="100">
         <f t="shared" si="4"/>
         <v>11000</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="102" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="96" t="s">
         <v>296</v>
       </c>
-      <c r="B22" s="105">
+      <c r="B22" s="99">
         <f t="shared" si="5"/>
         <v>11500</v>
       </c>
-      <c r="F22" s="107">
+      <c r="F22" s="100">
         <f t="shared" si="4"/>
         <v>11500</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="102" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="96" t="s">
         <v>297</v>
       </c>
-      <c r="B23" s="105">
+      <c r="B23" s="99">
         <f t="shared" si="5"/>
         <v>12000</v>
       </c>
-      <c r="F23" s="107">
+      <c r="F23" s="100">
         <f t="shared" si="4"/>
         <v>12000</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="102" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="96" t="s">
         <v>298</v>
       </c>
-      <c r="B24" s="105">
+      <c r="B24" s="99">
         <f t="shared" si="5"/>
         <v>12500</v>
       </c>
-      <c r="F24" s="107">
+      <c r="F24" s="100">
         <f t="shared" si="4"/>
         <v>12500</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="102" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="96" t="s">
         <v>299</v>
       </c>
-      <c r="B25" s="105">
+      <c r="B25" s="99">
         <f t="shared" si="5"/>
         <v>13000</v>
       </c>
-      <c r="F25" s="107">
+      <c r="F25" s="100">
         <f t="shared" si="4"/>
         <v>13000</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="102" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="96" t="s">
         <v>300</v>
       </c>
-      <c r="B26" s="105">
+      <c r="B26" s="99">
         <f t="shared" si="5"/>
         <v>13500</v>
       </c>
-      <c r="F26" s="107">
+      <c r="F26" s="100">
         <f t="shared" si="4"/>
         <v>13500</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="102" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="96" t="s">
         <v>301</v>
       </c>
-      <c r="B27" s="105">
+      <c r="B27" s="99">
         <f t="shared" si="5"/>
         <v>14000</v>
       </c>
-      <c r="F27" s="107">
+      <c r="F27" s="100">
         <f t="shared" si="4"/>
         <v>14000</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="102" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="96" t="s">
         <v>302</v>
       </c>
-      <c r="B28" s="105">
+      <c r="B28" s="99">
         <f t="shared" si="5"/>
         <v>14500</v>
       </c>
-      <c r="F28" s="107">
+      <c r="F28" s="100">
         <f t="shared" si="4"/>
         <v>14500</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="102" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="96" t="s">
         <v>303</v>
       </c>
-      <c r="B29" s="105">
+      <c r="B29" s="99">
         <f t="shared" si="5"/>
         <v>15000</v>
       </c>
-      <c r="F29" s="107">
+      <c r="F29" s="100">
         <f t="shared" si="4"/>
         <v>15000</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="102" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="96" t="s">
         <v>351</v>
       </c>
-      <c r="B30" s="105">
+      <c r="B30" s="99">
         <f t="shared" si="5"/>
         <v>15500</v>
       </c>
-      <c r="F30" s="107">
+      <c r="F30" s="100">
         <f t="shared" si="4"/>
         <v>15500</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="102" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="96" t="s">
         <v>304</v>
       </c>
-      <c r="B31" s="105">
+      <c r="B31" s="99">
         <f t="shared" si="5"/>
         <v>16000</v>
       </c>
-      <c r="F31" s="107">
+      <c r="F31" s="100">
         <f t="shared" si="4"/>
         <v>16000</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="102" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="96" t="s">
         <v>305</v>
       </c>
-      <c r="B32" s="105">
+      <c r="B32" s="99">
         <f t="shared" si="5"/>
         <v>16500</v>
       </c>
-      <c r="F32" s="107">
+      <c r="F32" s="100">
         <f t="shared" si="4"/>
         <v>16500</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="102" t="s">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="96" t="s">
         <v>306</v>
       </c>
-      <c r="B33" s="105">
+      <c r="B33" s="99">
         <f t="shared" si="5"/>
         <v>17000</v>
       </c>
-      <c r="F33" s="107">
+      <c r="F33" s="100">
         <f t="shared" si="4"/>
         <v>17000</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="102" t="s">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="96" t="s">
         <v>307</v>
       </c>
-      <c r="B34" s="105">
+      <c r="B34" s="99">
         <f t="shared" si="5"/>
         <v>17500</v>
       </c>
-      <c r="F34" s="107">
+      <c r="F34" s="100">
         <f t="shared" si="4"/>
         <v>17500</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B36" s="105">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B36" s="99">
         <f>SUM(B3:B34)</f>
         <v>2580000</v>
       </c>
-      <c r="C36" s="105">
+      <c r="C36" s="99">
         <f>SUM(C3:C34)</f>
         <v>4500000</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="B38" s="105">
+      <c r="B38" s="99">
         <f>C36-B36</f>
         <v>1920000</v>
       </c>
-      <c r="E38" s="107">
+      <c r="E38" s="100">
         <f>IF(B38&gt;0,0,(B38*-1))</f>
         <v>0</v>
       </c>
-      <c r="F38" s="107">
+      <c r="F38" s="100">
         <f>IF(B38&gt;0,B38,0)</f>
         <v>1920000</v>
       </c>
@@ -9004,29 +9004,29 @@
         <v>382</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="110" t="s">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="103" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="110" t="s">
+    <row r="40" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="103" t="s">
         <v>384</v>
       </c>
-      <c r="D40" s="108" t="s">
+      <c r="D40" s="101" t="s">
         <v>158</v>
       </c>
-      <c r="E40" s="109">
+      <c r="E40" s="102">
         <f>SUM(E3:E38)</f>
         <v>4500000</v>
       </c>
-      <c r="F40" s="109">
+      <c r="F40" s="102">
         <f>SUM(F3:F38)</f>
         <v>4500000</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="F41" s="107">
+    <row r="41" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="F41" s="100">
         <f>F40-E40</f>
         <v>0</v>
       </c>
@@ -9049,18 +9049,18 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>70</v>
       </c>
@@ -9071,7 +9071,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="19" t="s">
         <v>31</v>
       </c>
@@ -9085,7 +9085,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>55</v>
       </c>
@@ -9100,7 +9100,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>71</v>
       </c>
@@ -9109,7 +9109,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>73</v>
       </c>
@@ -9120,7 +9120,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="19" t="s">
         <v>31</v>
       </c>
@@ -9134,7 +9134,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>71</v>
       </c>
@@ -9150,7 +9150,7 @@
         <v>-0.20000000000000007</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>55</v>
       </c>
@@ -9159,17 +9159,17 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" s="19" t="s">
         <v>31</v>
       </c>
@@ -9183,7 +9183,7 @@
         <v>30.25</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
         <v>71</v>
       </c>
@@ -9198,7 +9198,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
         <v>55</v>
       </c>
@@ -9214,12 +9214,12 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" s="19" t="s">
         <v>31</v>
       </c>
@@ -9233,7 +9233,7 @@
         <v>30.25</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -9248,7 +9248,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
         <v>71</v>
       </c>
